--- a/models/all_baseline_data.xlsx
+++ b/models/all_baseline_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="42">
   <si>
     <t>Set</t>
   </si>
@@ -127,10 +127,10 @@
     <t>BERT</t>
   </si>
   <si>
-    <t>TeRCEx</t>
+    <t>ETeR-X</t>
   </si>
   <si>
-    <t>BiVAECF</t>
+    <t>BiVAE</t>
   </si>
   <si>
     <t>EASEᴿ</t>
@@ -140,78 +140,6 @@
   </si>
   <si>
     <t>USEM</t>
-  </si>
-  <si>
-    <t>28.6884</t>
-  </si>
-  <si>
-    <t>1.0422</t>
-  </si>
-  <si>
-    <t>352.6678</t>
-  </si>
-  <si>
-    <t>12.4069</t>
-  </si>
-  <si>
-    <t>411.1219</t>
-  </si>
-  <si>
-    <t>18.1851</t>
-  </si>
-  <si>
-    <t>1439.7406</t>
-  </si>
-  <si>
-    <t>33.7482</t>
-  </si>
-  <si>
-    <t>997.8453</t>
-  </si>
-  <si>
-    <t>27.9478</t>
-  </si>
-  <si>
-    <t>69.3459</t>
-  </si>
-  <si>
-    <t>3.4404</t>
-  </si>
-  <si>
-    <t>100.5543</t>
-  </si>
-  <si>
-    <t>4.3565</t>
-  </si>
-  <si>
-    <t>40.1660</t>
-  </si>
-  <si>
-    <t>2.4810</t>
-  </si>
-  <si>
-    <t>52.8296</t>
-  </si>
-  <si>
-    <t>3.4475</t>
-  </si>
-  <si>
-    <t>43.1859</t>
-  </si>
-  <si>
-    <t>2.1179</t>
-  </si>
-  <si>
-    <t>345.8308</t>
-  </si>
-  <si>
-    <t>5.1412</t>
-  </si>
-  <si>
-    <t>386.5587</t>
-  </si>
-  <si>
-    <t>4.7858</t>
   </si>
 </sst>
 </file>
@@ -873,8 +801,8 @@
       <c r="V4">
         <v>0.2875550090046042</v>
       </c>
-      <c r="W4" t="s">
-        <v>42</v>
+      <c r="W4">
+        <v>28.6884</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -944,8 +872,8 @@
       <c r="V5">
         <v>0.2869592484067173</v>
       </c>
-      <c r="W5" t="s">
-        <v>43</v>
+      <c r="W5">
+        <v>1.0422</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1323,8 +1251,8 @@
       <c r="V10">
         <v>0.0693344707864904</v>
       </c>
-      <c r="W10" t="s">
-        <v>44</v>
+      <c r="W10">
+        <v>352.6678</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1394,8 +1322,8 @@
       <c r="V11">
         <v>0.1055464416879935</v>
       </c>
-      <c r="W11" t="s">
-        <v>45</v>
+      <c r="W11">
+        <v>12.4069</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1773,8 +1701,8 @@
       <c r="V16">
         <v>0.0682143534556259</v>
       </c>
-      <c r="W16" t="s">
-        <v>46</v>
+      <c r="W16">
+        <v>411.1219</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1844,8 +1772,8 @@
       <c r="V17">
         <v>0.113314344354501</v>
       </c>
-      <c r="W17" t="s">
-        <v>47</v>
+      <c r="W17">
+        <v>18.1851</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2223,8 +2151,8 @@
       <c r="V22">
         <v>0.0382983446945548</v>
       </c>
-      <c r="W22" t="s">
-        <v>48</v>
+      <c r="W22">
+        <v>1439.7406</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2294,8 +2222,8 @@
       <c r="V23">
         <v>0.07727435862776599</v>
       </c>
-      <c r="W23" t="s">
-        <v>49</v>
+      <c r="W23">
+        <v>33.7482</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2673,8 +2601,8 @@
       <c r="V28">
         <v>0.0861901419148729</v>
       </c>
-      <c r="W28" t="s">
-        <v>50</v>
+      <c r="W28">
+        <v>997.8453</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2744,8 +2672,8 @@
       <c r="V29">
         <v>0.1263467683197098</v>
       </c>
-      <c r="W29" t="s">
-        <v>51</v>
+      <c r="W29">
+        <v>27.9478</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3123,8 +3051,8 @@
       <c r="V34">
         <v>0.5346020107687763</v>
       </c>
-      <c r="W34" t="s">
-        <v>52</v>
+      <c r="W34">
+        <v>69.3459</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3194,8 +3122,8 @@
       <c r="V35">
         <v>0.555077327499603</v>
       </c>
-      <c r="W35" t="s">
-        <v>53</v>
+      <c r="W35">
+        <v>3.4404</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3573,8 +3501,8 @@
       <c r="V40">
         <v>0.4689150364546233</v>
       </c>
-      <c r="W40" t="s">
-        <v>54</v>
+      <c r="W40">
+        <v>100.5543</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -3644,8 +3572,8 @@
       <c r="V41">
         <v>0.5209789951845107</v>
       </c>
-      <c r="W41" t="s">
-        <v>55</v>
+      <c r="W41">
+        <v>4.3565</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4023,8 +3951,8 @@
       <c r="V46">
         <v>0.6374529640958072</v>
       </c>
-      <c r="W46" t="s">
-        <v>56</v>
+      <c r="W46">
+        <v>40.166</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -4094,8 +4022,8 @@
       <c r="V47">
         <v>0.6548904595720243</v>
       </c>
-      <c r="W47" t="s">
-        <v>57</v>
+      <c r="W47">
+        <v>2.481</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4473,8 +4401,8 @@
       <c r="V52">
         <v>0.531720433279101</v>
       </c>
-      <c r="W52" t="s">
-        <v>58</v>
+      <c r="W52">
+        <v>52.8296</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -4544,8 +4472,8 @@
       <c r="V53">
         <v>0.556397594705997</v>
       </c>
-      <c r="W53" t="s">
-        <v>59</v>
+      <c r="W53">
+        <v>3.4475</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -4923,8 +4851,8 @@
       <c r="V58">
         <v>0.4765033251463078</v>
       </c>
-      <c r="W58" t="s">
-        <v>60</v>
+      <c r="W58">
+        <v>43.1859</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -4994,8 +4922,8 @@
       <c r="V59">
         <v>0.5178639058370467</v>
       </c>
-      <c r="W59" t="s">
-        <v>61</v>
+      <c r="W59">
+        <v>2.1179</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5373,8 +5301,8 @@
       <c r="V64">
         <v>0.2023499263117841</v>
       </c>
-      <c r="W64" t="s">
-        <v>62</v>
+      <c r="W64">
+        <v>345.8308</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5444,8 +5372,8 @@
       <c r="V65">
         <v>0.709298940987285</v>
       </c>
-      <c r="W65" t="s">
-        <v>63</v>
+      <c r="W65">
+        <v>5.1412</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5823,8 +5751,8 @@
       <c r="V70">
         <v>0.0592108657355863</v>
       </c>
-      <c r="W70" t="s">
-        <v>64</v>
+      <c r="W70">
+        <v>386.5587</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -5894,8 +5822,8 @@
       <c r="V71">
         <v>0.1789466618054607</v>
       </c>
-      <c r="W71" t="s">
-        <v>65</v>
+      <c r="W71">
+        <v>4.7858</v>
       </c>
     </row>
     <row r="72" spans="1:25">

--- a/models/all_baseline_data.xlsx
+++ b/models/all_baseline_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="66">
   <si>
     <t>Set</t>
   </si>
@@ -124,10 +124,13 @@
     <t>MSC</t>
   </si>
   <si>
+    <t>AITRecX</t>
+  </si>
+  <si>
     <t>BERT</t>
   </si>
   <si>
-    <t>ETeR-X</t>
+    <t>TRecX</t>
   </si>
   <si>
     <t>BiVAE</t>
@@ -139,7 +142,76 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>USEM</t>
+    <t>28.6884</t>
+  </si>
+  <si>
+    <t>1.0422</t>
+  </si>
+  <si>
+    <t>352.6678</t>
+  </si>
+  <si>
+    <t>12.4069</t>
+  </si>
+  <si>
+    <t>411.1219</t>
+  </si>
+  <si>
+    <t>18.1851</t>
+  </si>
+  <si>
+    <t>1439.7406</t>
+  </si>
+  <si>
+    <t>33.7482</t>
+  </si>
+  <si>
+    <t>997.8453</t>
+  </si>
+  <si>
+    <t>27.9478</t>
+  </si>
+  <si>
+    <t>69.3459</t>
+  </si>
+  <si>
+    <t>3.4404</t>
+  </si>
+  <si>
+    <t>100.5543</t>
+  </si>
+  <si>
+    <t>4.3565</t>
+  </si>
+  <si>
+    <t>40.1660</t>
+  </si>
+  <si>
+    <t>2.4810</t>
+  </si>
+  <si>
+    <t>52.8296</t>
+  </si>
+  <si>
+    <t>3.4475</t>
+  </si>
+  <si>
+    <t>43.1859</t>
+  </si>
+  <si>
+    <t>2.1179</t>
+  </si>
+  <si>
+    <t>345.8308</t>
+  </si>
+  <si>
+    <t>5.1412</t>
+  </si>
+  <si>
+    <t>386.5587</t>
+  </si>
+  <si>
+    <t>4.7858</t>
   </si>
 </sst>
 </file>
@@ -591,70 +663,70 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>0.029021113696834</v>
+        <v>0.2715404643487309</v>
       </c>
       <c r="E2">
-        <v>0.4214842021465301</v>
+        <v>0.431324303150177</v>
       </c>
       <c r="F2">
-        <v>0.2179855108261108</v>
+        <v>0.2259122572011417</v>
       </c>
       <c r="G2">
-        <v>0.1366431870736366</v>
+        <v>0.1402959498492154</v>
       </c>
       <c r="H2">
-        <v>0.954079568386078</v>
+        <v>0.1705617010593414</v>
       </c>
       <c r="I2">
-        <v>0.4214842021465301</v>
+        <v>0.431324303150177</v>
       </c>
       <c r="J2">
-        <v>0.6539565324783325</v>
+        <v>0.677736759185791</v>
       </c>
       <c r="K2">
-        <v>0.7515375018119812</v>
+        <v>0.7716277241706848</v>
       </c>
       <c r="L2">
-        <v>0.8364083766937256</v>
+        <v>0.8589586019515991</v>
       </c>
       <c r="M2">
-        <v>0.9290692806243896</v>
+        <v>0.955719530582428</v>
       </c>
       <c r="N2">
-        <v>0.0147346556186676</v>
+        <v>0.6656000018119812</v>
       </c>
       <c r="O2">
-        <v>0.4214842021465301</v>
+        <v>0.431324303150177</v>
       </c>
       <c r="P2">
-        <v>0.1307913064956665</v>
+        <v>0.1355473548173904</v>
       </c>
       <c r="Q2">
-        <v>0.0751537531614303</v>
+        <v>0.0771627724170684</v>
       </c>
       <c r="R2">
-        <v>0.6282095313072205</v>
+        <v>0.6406184434890747</v>
       </c>
       <c r="S2">
-        <v>0.4214842021465301</v>
+        <v>0.431324303150177</v>
       </c>
       <c r="T2">
-        <v>0.5769718885421753</v>
+        <v>0.5920780301094055</v>
       </c>
       <c r="U2">
-        <v>0.6170227527618408</v>
+        <v>0.6335569620132446</v>
       </c>
       <c r="V2">
-        <v>0.625110387802124</v>
+        <v>0.6388816833496094</v>
       </c>
       <c r="W2">
-        <v>2998.131769657135</v>
+        <v>163.4305446147919</v>
       </c>
       <c r="X2">
-        <v>4405141</v>
+        <v>1247104</v>
       </c>
       <c r="Y2">
-        <v>8.521257820287014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -668,70 +740,70 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>0.0319047436515979</v>
+        <v>0.029021113696834</v>
       </c>
       <c r="E3">
-        <v>0.3788437843322754</v>
+        <v>0.4214842021465301</v>
       </c>
       <c r="F3">
-        <v>0.2065053958859708</v>
+        <v>0.2179855108261108</v>
       </c>
       <c r="G3">
-        <v>0.130679485719066</v>
+        <v>0.1366431870736366</v>
       </c>
       <c r="H3">
-        <v>0.939319372177124</v>
+        <v>0.954079568386078</v>
       </c>
       <c r="I3">
-        <v>0.3788437843322754</v>
+        <v>0.4214842021465301</v>
       </c>
       <c r="J3">
-        <v>0.6195161938667297</v>
+        <v>0.6539565324783325</v>
       </c>
       <c r="K3">
-        <v>0.7187371850013733</v>
+        <v>0.7515375018119812</v>
       </c>
       <c r="L3">
-        <v>0.8187782168388367</v>
+        <v>0.8364083766937256</v>
       </c>
       <c r="M3">
-        <v>0.92045921087265</v>
+        <v>0.9290692806243896</v>
       </c>
       <c r="N3">
-        <v>0.0162279698997735</v>
+        <v>0.0147346556186676</v>
       </c>
       <c r="O3">
-        <v>0.3788437843322754</v>
+        <v>0.4214842021465301</v>
       </c>
       <c r="P3">
-        <v>0.1239032372832298</v>
+        <v>0.1307913064956665</v>
       </c>
       <c r="Q3">
-        <v>0.0718737170100212</v>
+        <v>0.0751537531614303</v>
       </c>
       <c r="R3">
-        <v>0.5958314538002014</v>
+        <v>0.6282095313072205</v>
       </c>
       <c r="S3">
-        <v>0.3788437843322754</v>
+        <v>0.4214842021465301</v>
       </c>
       <c r="T3">
-        <v>0.537446916103363</v>
+        <v>0.5769718885421753</v>
       </c>
       <c r="U3">
-        <v>0.5831519961357117</v>
+        <v>0.6170227527618408</v>
       </c>
       <c r="V3">
-        <v>0.5926299691200256</v>
+        <v>0.625110387802124</v>
       </c>
       <c r="W3">
-        <v>17.09086942672729</v>
+        <v>2998.131769657135</v>
       </c>
       <c r="X3">
-        <v>95360</v>
+        <v>4405141</v>
       </c>
       <c r="Y3">
-        <v>0.01363800082768362</v>
+        <v>8.521257820287014</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -745,64 +817,70 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>0.0176988552694297</v>
+        <v>0.0319047436515979</v>
       </c>
       <c r="E4">
-        <v>0.0827597597597597</v>
+        <v>0.3788437843322754</v>
       </c>
       <c r="F4">
-        <v>0.0708625878625877</v>
+        <v>0.2065053958859708</v>
       </c>
       <c r="G4">
-        <v>0.0593851015845906</v>
+        <v>0.130679485719066</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.939319372177124</v>
       </c>
       <c r="I4">
-        <v>0.07931595881595881</v>
+        <v>0.3788437843322754</v>
       </c>
       <c r="J4">
-        <v>0.1865799425799425</v>
+        <v>0.6195161938667297</v>
       </c>
       <c r="K4">
-        <v>0.2749020889020889</v>
+        <v>0.7187371850013733</v>
       </c>
       <c r="L4">
-        <v>0.4024031284031284</v>
+        <v>0.8187782168388367</v>
       </c>
       <c r="M4">
-        <v>0.629157608157608</v>
+        <v>0.92045921087265</v>
       </c>
       <c r="N4">
-        <v>0.008966875593739199</v>
+        <v>0.0162279698997735</v>
       </c>
       <c r="O4">
-        <v>0.0924324324324324</v>
+        <v>0.3788437843322754</v>
       </c>
       <c r="P4">
-        <v>0.0456216216216219</v>
+        <v>0.1239032372832298</v>
       </c>
       <c r="Q4">
-        <v>0.0342702702702705</v>
+        <v>0.0718737170100212</v>
       </c>
       <c r="R4">
-        <v>0.31146539757538</v>
+        <v>0.5958314538002014</v>
       </c>
       <c r="S4">
-        <v>0.0924324324324324</v>
+        <v>0.3788437843322754</v>
       </c>
       <c r="T4">
-        <v>0.169375458377363</v>
+        <v>0.537446916103363</v>
       </c>
       <c r="U4">
-        <v>0.2508807283394807</v>
+        <v>0.5831519961357117</v>
       </c>
       <c r="V4">
-        <v>0.2875550090046042</v>
+        <v>0.5926299691200256</v>
       </c>
       <c r="W4">
-        <v>28.6884</v>
+        <v>17.09086942672729</v>
+      </c>
+      <c r="X4">
+        <v>95360</v>
+      </c>
+      <c r="Y4">
+        <v>0.01363800082768362</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -819,61 +897,61 @@
         <v>0.0176988552694297</v>
       </c>
       <c r="E5">
-        <v>0.0771741741741742</v>
+        <v>0.0827597597597597</v>
       </c>
       <c r="F5">
-        <v>0.07162241362241351</v>
+        <v>0.0708625878625877</v>
       </c>
       <c r="G5">
-        <v>0.0602846159623658</v>
+        <v>0.0593851015845906</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0.0723339768339768</v>
+        <v>0.07931595881595881</v>
       </c>
       <c r="J5">
-        <v>0.1819756954756954</v>
+        <v>0.1865799425799425</v>
       </c>
       <c r="K5">
-        <v>0.269515741015741</v>
+        <v>0.2749020889020889</v>
       </c>
       <c r="L5">
-        <v>0.3963242748242749</v>
+        <v>0.4024031284031284</v>
       </c>
       <c r="M5">
-        <v>0.612833828333828</v>
+        <v>0.629157608157608</v>
       </c>
       <c r="N5">
         <v>0.008966875593739199</v>
       </c>
       <c r="O5">
-        <v>0.0908108108108108</v>
+        <v>0.0924324324324324</v>
       </c>
       <c r="P5">
-        <v>0.0469189189189192</v>
+        <v>0.0456216216216219</v>
       </c>
       <c r="Q5">
-        <v>0.0351351351351354</v>
+        <v>0.0342702702702705</v>
       </c>
       <c r="R5">
-        <v>0.308030932276272</v>
+        <v>0.31146539757538</v>
       </c>
       <c r="S5">
-        <v>0.0908108108108108</v>
+        <v>0.0924324324324324</v>
       </c>
       <c r="T5">
-        <v>0.165435473489649</v>
+        <v>0.169375458377363</v>
       </c>
       <c r="U5">
-        <v>0.2452753980783918</v>
+        <v>0.2508807283394807</v>
       </c>
       <c r="V5">
-        <v>0.2869592484067173</v>
-      </c>
-      <c r="W5">
-        <v>1.0422</v>
+        <v>0.2875550090046042</v>
+      </c>
+      <c r="W5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -890,67 +968,61 @@
         <v>0.0176988552694297</v>
       </c>
       <c r="E6">
-        <v>0.0772792792792793</v>
+        <v>0.0771741741741742</v>
       </c>
       <c r="F6">
-        <v>0.0704812724812723</v>
+        <v>0.07162241362241351</v>
       </c>
       <c r="G6">
-        <v>0.0581732918510417</v>
+        <v>0.0602846159623658</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0.0747027027027027</v>
+        <v>0.0723339768339768</v>
       </c>
       <c r="J6">
-        <v>0.1894634689634689</v>
+        <v>0.1819756954756954</v>
       </c>
       <c r="K6">
-        <v>0.2686013266013266</v>
+        <v>0.269515741015741</v>
       </c>
       <c r="L6">
-        <v>0.3983546183546183</v>
+        <v>0.3963242748242749</v>
       </c>
       <c r="M6">
-        <v>0.6268918423918421</v>
+        <v>0.612833828333828</v>
       </c>
       <c r="N6">
         <v>0.008966875593739199</v>
       </c>
       <c r="O6">
-        <v>0.08378378378378371</v>
+        <v>0.0908108108108108</v>
       </c>
       <c r="P6">
-        <v>0.0448648648648652</v>
+        <v>0.0469189189189192</v>
       </c>
       <c r="Q6">
-        <v>0.0336216216216219</v>
+        <v>0.0351351351351354</v>
       </c>
       <c r="R6">
-        <v>0.3090337721528302</v>
+        <v>0.308030932276272</v>
       </c>
       <c r="S6">
-        <v>0.08378378378378371</v>
+        <v>0.0908108108108108</v>
       </c>
       <c r="T6">
-        <v>0.1654424235762732</v>
+        <v>0.165435473489649</v>
       </c>
       <c r="U6">
-        <v>0.2473458417738649</v>
+        <v>0.2452753980783918</v>
       </c>
       <c r="V6">
-        <v>0.2885232690606841</v>
-      </c>
-      <c r="W6">
-        <v>0.3363080024719238</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>3.705215233421265E-06</v>
+        <v>0.2869592484067173</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -964,70 +1036,70 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>0.0348291297499468</v>
+        <v>0.0176988552694297</v>
       </c>
       <c r="E7">
-        <v>0.4321443140506744</v>
+        <v>0.0772792792792793</v>
       </c>
       <c r="F7">
-        <v>0.2088287472724914</v>
+        <v>0.0704812724812723</v>
       </c>
       <c r="G7">
-        <v>0.1291885691240798</v>
+        <v>0.0581732918510417</v>
       </c>
       <c r="H7">
-        <v>0.894218921661377</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0.4321443140506744</v>
+        <v>0.0747027027027027</v>
       </c>
       <c r="J7">
-        <v>0.6264862418174744</v>
+        <v>0.1894634689634689</v>
       </c>
       <c r="K7">
-        <v>0.7105370759963989</v>
+        <v>0.2686013266013266</v>
       </c>
       <c r="L7">
-        <v>0.7941779494285583</v>
+        <v>0.3983546183546183</v>
       </c>
       <c r="M7">
-        <v>0.8921689391136169</v>
+        <v>0.6268918423918421</v>
       </c>
       <c r="N7">
-        <v>0.0177604425698518</v>
+        <v>0.008966875593739199</v>
       </c>
       <c r="O7">
-        <v>0.4321443140506744</v>
+        <v>0.08378378378378371</v>
       </c>
       <c r="P7">
-        <v>0.1252972483634948</v>
+        <v>0.0448648648648652</v>
       </c>
       <c r="Q7">
-        <v>0.0710537135601043</v>
+        <v>0.0336216216216219</v>
       </c>
       <c r="R7">
-        <v>0.6184929609298706</v>
+        <v>0.3090337721528302</v>
       </c>
       <c r="S7">
-        <v>0.4321443140506744</v>
+        <v>0.08378378378378371</v>
       </c>
       <c r="T7">
-        <v>0.5610104203224182</v>
+        <v>0.1654424235762732</v>
       </c>
       <c r="U7">
-        <v>0.6017716526985168</v>
+        <v>0.2473458417738649</v>
       </c>
       <c r="V7">
-        <v>0.6125504970550537</v>
+        <v>0.2885232690606841</v>
       </c>
       <c r="W7">
-        <v>309.5013952255249</v>
+        <v>0.3363080024719238</v>
       </c>
       <c r="X7">
-        <v>69003669</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.3084889221290666</v>
+        <v>3.705215233421265E-06</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1041,70 +1113,70 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>0.003635991018697</v>
+        <v>0.0258048361841327</v>
       </c>
       <c r="E8">
-        <v>0.3040350377559662</v>
+        <v>0.3229421377182007</v>
       </c>
       <c r="F8">
-        <v>0.174805932988723</v>
+        <v>0.176127888676193</v>
       </c>
       <c r="G8">
-        <v>0.1107091191878988</v>
+        <v>0.1110025764989458</v>
       </c>
       <c r="H8">
-        <v>0.969610333442688</v>
+        <v>0.7696564197540283</v>
       </c>
       <c r="I8">
-        <v>0.3040350377559662</v>
+        <v>0.3229421377182007</v>
       </c>
       <c r="J8">
-        <v>0.5244178175926208</v>
+        <v>0.5283836722373962</v>
       </c>
       <c r="K8">
-        <v>0.6089001893997192</v>
+        <v>0.6105141639709473</v>
       </c>
       <c r="L8">
-        <v>0.6898778080940247</v>
+        <v>0.6907078623771667</v>
       </c>
       <c r="M8">
-        <v>0.7909615039825439</v>
+        <v>0.7887018918991089</v>
       </c>
       <c r="N8">
-        <v>0.0018214106094092</v>
+        <v>0.0131224002689123</v>
       </c>
       <c r="O8">
-        <v>0.3040350377559662</v>
+        <v>0.3229421377182007</v>
       </c>
       <c r="P8">
-        <v>0.1048835590481758</v>
+        <v>0.1056767329573631</v>
       </c>
       <c r="Q8">
-        <v>0.0608900152146816</v>
+        <v>0.0610514171421527</v>
       </c>
       <c r="R8">
-        <v>0.5160834789276123</v>
+        <v>0.5279213786125183</v>
       </c>
       <c r="S8">
-        <v>0.3014065027236938</v>
+        <v>0.3229421377182007</v>
       </c>
       <c r="T8">
-        <v>0.447766900062561</v>
+        <v>0.4590192437171936</v>
       </c>
       <c r="U8">
-        <v>0.4874613285064697</v>
+        <v>0.4989200830459595</v>
       </c>
       <c r="V8">
-        <v>0.4982684552669525</v>
+        <v>0.5098445415496826</v>
       </c>
       <c r="W8">
-        <v>32373.4896941185</v>
+        <v>16526.09252643585</v>
       </c>
       <c r="X8">
-        <v>4556458</v>
+        <v>4160512</v>
       </c>
       <c r="Y8">
-        <v>124.0493430435974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1118,70 +1190,70 @@
         <v>37</v>
       </c>
       <c r="D9">
-        <v>0.0035666420893298</v>
+        <v>0.003635991018697</v>
       </c>
       <c r="E9">
-        <v>0.28328338265419</v>
+        <v>0.3040350377559662</v>
       </c>
       <c r="F9">
-        <v>0.1590961474511358</v>
+        <v>0.174805932988723</v>
       </c>
       <c r="G9">
-        <v>0.1015699993480335</v>
+        <v>0.1107091191878988</v>
       </c>
       <c r="H9">
-        <v>0.9537007212638856</v>
+        <v>0.969610333442688</v>
       </c>
       <c r="I9">
-        <v>0.28328338265419</v>
+        <v>0.3040350377559662</v>
       </c>
       <c r="J9">
-        <v>0.4772884547710418</v>
+        <v>0.5244178175926208</v>
       </c>
       <c r="K9">
-        <v>0.5586349964141846</v>
+        <v>0.6089001893997192</v>
       </c>
       <c r="L9">
-        <v>0.6375835537910461</v>
+        <v>0.6898778080940247</v>
       </c>
       <c r="M9">
-        <v>0.7381600141525269</v>
+        <v>0.7909615039825439</v>
       </c>
       <c r="N9">
-        <v>0.0017866619164124</v>
+        <v>0.0018214106094092</v>
       </c>
       <c r="O9">
-        <v>0.28328338265419</v>
+        <v>0.3040350377559662</v>
       </c>
       <c r="P9">
-        <v>0.09545768797397609</v>
+        <v>0.1048835590481758</v>
       </c>
       <c r="Q9">
-        <v>0.0558634996414184</v>
+        <v>0.0608900152146816</v>
       </c>
       <c r="R9">
-        <v>0.4868667423725128</v>
+        <v>0.5160834789276123</v>
       </c>
       <c r="S9">
-        <v>0.2829605638980865</v>
+        <v>0.3014065027236938</v>
       </c>
       <c r="T9">
-        <v>0.4120133221149444</v>
+        <v>0.447766900062561</v>
       </c>
       <c r="U9">
-        <v>0.4521372318267822</v>
+        <v>0.4874613285064697</v>
       </c>
       <c r="V9">
-        <v>0.4631149768829345</v>
+        <v>0.4982684552669525</v>
       </c>
       <c r="W9">
-        <v>151.5743391513824</v>
+        <v>32373.4896941185</v>
       </c>
       <c r="X9">
-        <v>2780166</v>
+        <v>4556458</v>
       </c>
       <c r="Y9">
-        <v>0.1028946500026202</v>
+        <v>124.0493430435974</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1195,64 +1267,70 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>0.0021390119045239</v>
+        <v>0.0035666420893298</v>
       </c>
       <c r="E10">
-        <v>0.0097237789535283</v>
+        <v>0.28328338265419</v>
       </c>
       <c r="F10">
-        <v>0.0128371012695006</v>
+        <v>0.1590961474511358</v>
       </c>
       <c r="G10">
-        <v>0.0117676178107563</v>
+        <v>0.1015699993480335</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.9537007212638856</v>
       </c>
       <c r="I10">
-        <v>0.009074954388490101</v>
+        <v>0.28328338265419</v>
       </c>
       <c r="J10">
-        <v>0.0325038832380075</v>
+        <v>0.4772884547710418</v>
       </c>
       <c r="K10">
-        <v>0.0520252180317804</v>
+        <v>0.5586349964141846</v>
       </c>
       <c r="L10">
-        <v>0.0794258186156096</v>
+        <v>0.6375835537910461</v>
       </c>
       <c r="M10">
-        <v>0.1578492891248551</v>
+        <v>0.7381600141525269</v>
       </c>
       <c r="N10">
-        <v>0.0010726077823794</v>
+        <v>0.0017866619164124</v>
       </c>
       <c r="O10">
-        <v>0.0116664457112554</v>
+        <v>0.28328338265419</v>
       </c>
       <c r="P10">
-        <v>0.0085112024393478</v>
+        <v>0.09545768797397609</v>
       </c>
       <c r="Q10">
-        <v>0.0069136948163859</v>
+        <v>0.0558634996414184</v>
       </c>
       <c r="R10">
-        <v>0.1631453636294086</v>
+        <v>0.4868667423725128</v>
       </c>
       <c r="S10">
-        <v>0.0116664457112554</v>
+        <v>0.2829605638980865</v>
       </c>
       <c r="T10">
-        <v>0.0287394829865486</v>
+        <v>0.4120133221149444</v>
       </c>
       <c r="U10">
-        <v>0.0527096857260392</v>
+        <v>0.4521372318267822</v>
       </c>
       <c r="V10">
-        <v>0.0693344707864904</v>
+        <v>0.4631149768829345</v>
       </c>
       <c r="W10">
-        <v>352.6678</v>
+        <v>151.5743391513824</v>
+      </c>
+      <c r="X10">
+        <v>2780166</v>
+      </c>
+      <c r="Y10">
+        <v>0.1028946500026202</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1269,61 +1347,61 @@
         <v>0.0021390119045239</v>
       </c>
       <c r="E11">
-        <v>0.0297510282403869</v>
+        <v>0.0097237789535283</v>
       </c>
       <c r="F11">
-        <v>0.0296215374248978</v>
+        <v>0.0128371012695006</v>
       </c>
       <c r="G11">
-        <v>0.0247120830378152</v>
+        <v>0.0117676178107563</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.0273185625178988</v>
+        <v>0.009074954388490101</v>
       </c>
       <c r="J11">
-        <v>0.07013502996449129</v>
+        <v>0.0325038832380075</v>
       </c>
       <c r="K11">
-        <v>0.1010210215036425</v>
+        <v>0.0520252180317804</v>
       </c>
       <c r="L11">
-        <v>0.1394648283038397</v>
+        <v>0.0794258186156096</v>
       </c>
       <c r="M11">
-        <v>0.2161837444147924</v>
+        <v>0.1578492891248551</v>
       </c>
       <c r="N11">
         <v>0.0010726077823794</v>
       </c>
       <c r="O11">
-        <v>0.0379159485615802</v>
+        <v>0.0116664457112554</v>
       </c>
       <c r="P11">
-        <v>0.0207211984621497</v>
+        <v>0.0085112024393478</v>
       </c>
       <c r="Q11">
-        <v>0.0150470635025846</v>
+        <v>0.0069136948163859</v>
       </c>
       <c r="R11">
-        <v>0.1909581593029537</v>
+        <v>0.1631453636294086</v>
       </c>
       <c r="S11">
-        <v>0.0379159485615802</v>
+        <v>0.0116664457112554</v>
       </c>
       <c r="T11">
-        <v>0.0641065809455718</v>
+        <v>0.0287394829865486</v>
       </c>
       <c r="U11">
-        <v>0.0912002137069086</v>
+        <v>0.0527096857260392</v>
       </c>
       <c r="V11">
-        <v>0.1055464416879935</v>
-      </c>
-      <c r="W11">
-        <v>12.4069</v>
+        <v>0.0693344707864904</v>
+      </c>
+      <c r="W11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1340,67 +1418,61 @@
         <v>0.0021390119045239</v>
       </c>
       <c r="E12">
-        <v>0.0086765842168202</v>
+        <v>0.0297510282403869</v>
       </c>
       <c r="F12">
-        <v>0.013214125110332</v>
+        <v>0.0296215374248978</v>
       </c>
       <c r="G12">
-        <v>0.0119735040216934</v>
+        <v>0.0247120830378152</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.0080231325011253</v>
+        <v>0.0273185625178988</v>
       </c>
       <c r="J12">
-        <v>0.0326966732723725</v>
+        <v>0.07013502996449129</v>
       </c>
       <c r="K12">
-        <v>0.0522239223413946</v>
+        <v>0.1010210215036425</v>
       </c>
       <c r="L12">
-        <v>0.0821809982440079</v>
+        <v>0.1394648283038397</v>
       </c>
       <c r="M12">
-        <v>0.1531418689124758</v>
+        <v>0.2161837444147924</v>
       </c>
       <c r="N12">
         <v>0.0010726077823794</v>
       </c>
       <c r="O12">
-        <v>0.0107384329842237</v>
+        <v>0.0379159485615802</v>
       </c>
       <c r="P12">
-        <v>0.0088426355561448</v>
+        <v>0.0207211984621497</v>
       </c>
       <c r="Q12">
-        <v>0.0070661540501125</v>
+        <v>0.0150470635025846</v>
       </c>
       <c r="R12">
-        <v>0.1615167072649064</v>
+        <v>0.1909581593029537</v>
       </c>
       <c r="S12">
-        <v>0.0107384329842237</v>
+        <v>0.0379159485615802</v>
       </c>
       <c r="T12">
-        <v>0.0283183411294565</v>
+        <v>0.0641065809455718</v>
       </c>
       <c r="U12">
-        <v>0.0513153801082446</v>
+        <v>0.0912002137069086</v>
       </c>
       <c r="V12">
-        <v>0.0674890925150966</v>
-      </c>
-      <c r="W12">
-        <v>0.3015758991241455</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>3.59630494653316E-06</v>
+        <v>0.1055464416879935</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1414,70 +1486,70 @@
         <v>41</v>
       </c>
       <c r="D13">
-        <v>0.0034685709103191</v>
+        <v>0.0021390119045239</v>
       </c>
       <c r="E13">
-        <v>0.2863730788230896</v>
+        <v>0.0086765842168202</v>
       </c>
       <c r="F13">
-        <v>0.159664899110794</v>
+        <v>0.013214125110332</v>
       </c>
       <c r="G13">
-        <v>0.1013771573866694</v>
+        <v>0.0119735040216934</v>
       </c>
       <c r="H13">
-        <v>0.9576665759086608</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0.2863730788230896</v>
+        <v>0.0080231325011253</v>
       </c>
       <c r="J13">
-        <v>0.4789946973323822</v>
+        <v>0.0326966732723725</v>
       </c>
       <c r="K13">
-        <v>0.5575743317604065</v>
+        <v>0.0522239223413946</v>
       </c>
       <c r="L13">
-        <v>0.6340327262878418</v>
+        <v>0.0821809982440079</v>
       </c>
       <c r="M13">
-        <v>0.7387595176696777</v>
+        <v>0.1531418689124758</v>
       </c>
       <c r="N13">
-        <v>0.0017374318558722</v>
+        <v>0.0010726077823794</v>
       </c>
       <c r="O13">
-        <v>0.2863730788230896</v>
+        <v>0.0107384329842237</v>
       </c>
       <c r="P13">
-        <v>0.0957989394664764</v>
+        <v>0.0088426355561448</v>
       </c>
       <c r="Q13">
-        <v>0.0557574369013309</v>
+        <v>0.0070661540501125</v>
       </c>
       <c r="R13">
-        <v>0.4884651303291321</v>
+        <v>0.1615167072649064</v>
       </c>
       <c r="S13">
-        <v>0.2863730788230896</v>
+        <v>0.0107384329842237</v>
       </c>
       <c r="T13">
-        <v>0.4132740497589111</v>
+        <v>0.0283183411294565</v>
       </c>
       <c r="U13">
-        <v>0.4534915387630462</v>
+        <v>0.0513153801082446</v>
       </c>
       <c r="V13">
-        <v>0.4653944373130798</v>
+        <v>0.0674890925150966</v>
       </c>
       <c r="W13">
-        <v>828.8893673419952</v>
+        <v>0.3015758991241455</v>
       </c>
       <c r="X13">
-        <v>69605418</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.2595099979405253</v>
+        <v>3.59630494653316E-06</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1491,70 +1563,70 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>0.0029735764118651</v>
+        <v>0.0310186609044375</v>
       </c>
       <c r="E14">
-        <v>0.3040824830532074</v>
+        <v>0.3792388141155243</v>
       </c>
       <c r="F14">
-        <v>0.187489976071649</v>
+        <v>0.1944143813517358</v>
       </c>
       <c r="G14">
-        <v>0.1178615201603282</v>
+        <v>0.119829245342696</v>
       </c>
       <c r="H14">
-        <v>0.972582995891571</v>
+        <v>0.7535173296928406</v>
       </c>
       <c r="I14">
-        <v>0.3040824830532074</v>
+        <v>0.3792388141155243</v>
       </c>
       <c r="J14">
-        <v>0.5624699592590332</v>
+        <v>0.5832431316375732</v>
       </c>
       <c r="K14">
-        <v>0.6482383608818054</v>
+        <v>0.6590608358383179</v>
       </c>
       <c r="L14">
-        <v>0.7236952781677246</v>
+        <v>0.7299783825874329</v>
       </c>
       <c r="M14">
-        <v>0.8066678643226624</v>
+        <v>0.8132515549659729</v>
       </c>
       <c r="N14">
-        <v>0.0014890645397827</v>
+        <v>0.0158352609723806</v>
       </c>
       <c r="O14">
-        <v>0.3040824830532074</v>
+        <v>0.3792388141155243</v>
       </c>
       <c r="P14">
-        <v>0.112493984401226</v>
+        <v>0.1166486293077468</v>
       </c>
       <c r="Q14">
-        <v>0.0648238360881805</v>
+        <v>0.06590608507394791</v>
       </c>
       <c r="R14">
-        <v>0.5240349769592285</v>
+        <v>0.5723645091056824</v>
       </c>
       <c r="S14">
-        <v>0.2903138399124145</v>
+        <v>0.3792388141155243</v>
       </c>
       <c r="T14">
-        <v>0.4624153077602386</v>
+        <v>0.512576699256897</v>
       </c>
       <c r="U14">
-        <v>0.4977554082870483</v>
+        <v>0.547122597694397</v>
       </c>
       <c r="V14">
-        <v>0.5056735873222351</v>
+        <v>0.5561141967773438</v>
       </c>
       <c r="W14">
-        <v>54453.34705519676</v>
+        <v>48028.96248865128</v>
       </c>
       <c r="X14">
-        <v>4596706</v>
+        <v>5092096</v>
       </c>
       <c r="Y14">
-        <v>220.0554326341441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1568,70 +1640,70 @@
         <v>37</v>
       </c>
       <c r="D15">
-        <v>0.0030083162141077</v>
+        <v>0.0029735764118651</v>
       </c>
       <c r="E15">
-        <v>0.3530543446540832</v>
+        <v>0.3040824830532074</v>
       </c>
       <c r="F15">
-        <v>0.1824494956268204</v>
+        <v>0.187489976071649</v>
       </c>
       <c r="G15">
-        <v>0.112832872581876</v>
+        <v>0.1178615201603282</v>
       </c>
       <c r="H15">
-        <v>0.9628427028656006</v>
+        <v>0.972582995891571</v>
       </c>
       <c r="I15">
-        <v>0.3530543446540832</v>
+        <v>0.3040824830532074</v>
       </c>
       <c r="J15">
-        <v>0.5473484992980957</v>
+        <v>0.5624699592590332</v>
       </c>
       <c r="K15">
-        <v>0.620580792427063</v>
+        <v>0.6482383608818054</v>
       </c>
       <c r="L15">
-        <v>0.6898148059844971</v>
+        <v>0.7236952781677246</v>
       </c>
       <c r="M15">
-        <v>0.7728174328804016</v>
+        <v>0.8066678643226624</v>
       </c>
       <c r="N15">
-        <v>0.0015065115876495</v>
+        <v>0.0014890645397827</v>
       </c>
       <c r="O15">
-        <v>0.3530543446540832</v>
+        <v>0.3040824830532074</v>
       </c>
       <c r="P15">
-        <v>0.1094696968793869</v>
+        <v>0.112493984401226</v>
       </c>
       <c r="Q15">
-        <v>0.0620580799877643</v>
+        <v>0.0648238360881805</v>
       </c>
       <c r="R15">
-        <v>0.5440807938575745</v>
+        <v>0.5240349769592285</v>
       </c>
       <c r="S15">
-        <v>0.3527236580848694</v>
+        <v>0.2903138399124145</v>
       </c>
       <c r="T15">
-        <v>0.4802264273166656</v>
+        <v>0.4624153077602386</v>
       </c>
       <c r="U15">
-        <v>0.5143311619758606</v>
+        <v>0.4977554082870483</v>
       </c>
       <c r="V15">
-        <v>0.5236841440200806</v>
+        <v>0.5056735873222351</v>
       </c>
       <c r="W15">
-        <v>224.0520765781403</v>
+        <v>54453.34705519676</v>
       </c>
       <c r="X15">
-        <v>4098072</v>
+        <v>4596706</v>
       </c>
       <c r="Y15">
-        <v>0.1296020532969753</v>
+        <v>220.0554326341441</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1645,64 +1717,70 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>0.001742493474367</v>
+        <v>0.0030083162141077</v>
       </c>
       <c r="E16">
-        <v>0.0134826362342352</v>
+        <v>0.3530543446540832</v>
       </c>
       <c r="F16">
-        <v>0.0146338979670811</v>
+        <v>0.1824494956268204</v>
       </c>
       <c r="G16">
-        <v>0.0118296056282629</v>
+        <v>0.112832872581876</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.9628427028656006</v>
       </c>
       <c r="I16">
-        <v>0.012612576852507</v>
+        <v>0.3530543446540832</v>
       </c>
       <c r="J16">
-        <v>0.0374296781739811</v>
+        <v>0.5473484992980957</v>
       </c>
       <c r="K16">
-        <v>0.0528393249476281</v>
+        <v>0.620580792427063</v>
       </c>
       <c r="L16">
-        <v>0.0786981786429318</v>
+        <v>0.6898148059844971</v>
       </c>
       <c r="M16">
-        <v>0.1424868090667985</v>
+        <v>0.7728174328804016</v>
       </c>
       <c r="N16">
-        <v>0.0008734217939433</v>
+        <v>0.0015065115876495</v>
       </c>
       <c r="O16">
-        <v>0.015794282730714</v>
+        <v>0.3530543446540832</v>
       </c>
       <c r="P16">
-        <v>0.009580994648218001</v>
+        <v>0.1094696968793869</v>
       </c>
       <c r="Q16">
-        <v>0.0069051037723532</v>
+        <v>0.0620580799877643</v>
       </c>
       <c r="R16">
-        <v>0.1634568689359129</v>
+        <v>0.5440807938575745</v>
       </c>
       <c r="S16">
-        <v>0.015794282730714</v>
+        <v>0.3527236580848694</v>
       </c>
       <c r="T16">
-        <v>0.0317691195627018</v>
+        <v>0.4802264273166656</v>
       </c>
       <c r="U16">
-        <v>0.0521909258310316</v>
+        <v>0.5143311619758606</v>
       </c>
       <c r="V16">
-        <v>0.0682143534556259</v>
+        <v>0.5236841440200806</v>
       </c>
       <c r="W16">
-        <v>411.1219</v>
+        <v>224.0520765781403</v>
+      </c>
+      <c r="X16">
+        <v>4098072</v>
+      </c>
+      <c r="Y16">
+        <v>0.1296020532969753</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1719,61 +1797,61 @@
         <v>0.001742493474367</v>
       </c>
       <c r="E17">
-        <v>0.0320355688877487</v>
+        <v>0.0134826362342352</v>
       </c>
       <c r="F17">
-        <v>0.0327817019323379</v>
+        <v>0.0146338979670811</v>
       </c>
       <c r="G17">
-        <v>0.0271034820125029</v>
+        <v>0.0118296056282629</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.0296290776152035</v>
+        <v>0.012612576852507</v>
       </c>
       <c r="J17">
-        <v>0.07896203455890589</v>
+        <v>0.0374296781739811</v>
       </c>
       <c r="K17">
-        <v>0.1119131738724137</v>
+        <v>0.0528393249476281</v>
       </c>
       <c r="L17">
-        <v>0.1569861778907884</v>
+        <v>0.0786981786429318</v>
       </c>
       <c r="M17">
-        <v>0.2352557179509077</v>
+        <v>0.1424868090667985</v>
       </c>
       <c r="N17">
         <v>0.0008734217939433</v>
       </c>
       <c r="O17">
-        <v>0.039855545403124</v>
+        <v>0.015794282730714</v>
       </c>
       <c r="P17">
-        <v>0.0226254187877988</v>
+        <v>0.009580994648218001</v>
       </c>
       <c r="Q17">
-        <v>0.0164121307053046</v>
+        <v>0.0069051037723532</v>
       </c>
       <c r="R17">
-        <v>0.1955503092598451</v>
+        <v>0.1634568689359129</v>
       </c>
       <c r="S17">
-        <v>0.039855545403124</v>
+        <v>0.015794282730714</v>
       </c>
       <c r="T17">
-        <v>0.0708372174674506</v>
+        <v>0.0317691195627018</v>
       </c>
       <c r="U17">
-        <v>0.0999465313472357</v>
+        <v>0.0521909258310316</v>
       </c>
       <c r="V17">
-        <v>0.113314344354501</v>
-      </c>
-      <c r="W17">
-        <v>18.1851</v>
+        <v>0.0682143534556259</v>
+      </c>
+      <c r="W17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1790,67 +1868,61 @@
         <v>0.001742493474367</v>
       </c>
       <c r="E18">
-        <v>0.0163828497535926</v>
+        <v>0.0320355688877487</v>
       </c>
       <c r="F18">
-        <v>0.0184842954578008</v>
+        <v>0.0327817019323379</v>
       </c>
       <c r="G18">
-        <v>0.0159872730947235</v>
+        <v>0.0271034820125029</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.0153923905359749</v>
+        <v>0.0296290776152035</v>
       </c>
       <c r="J18">
-        <v>0.047674069779539</v>
+        <v>0.07896203455890589</v>
       </c>
       <c r="K18">
-        <v>0.0716172143857824</v>
+        <v>0.1119131738724137</v>
       </c>
       <c r="L18">
-        <v>0.1045075331075337</v>
+        <v>0.1569861778907884</v>
       </c>
       <c r="M18">
-        <v>0.1740465303004092</v>
+        <v>0.2352557179509077</v>
       </c>
       <c r="N18">
         <v>0.0008734217939433</v>
       </c>
       <c r="O18">
-        <v>0.0191010747073924</v>
+        <v>0.039855545403124</v>
       </c>
       <c r="P18">
-        <v>0.0120262802941301</v>
+        <v>0.0226254187877988</v>
       </c>
       <c r="Q18">
-        <v>0.009315581081668699</v>
+        <v>0.0164121307053046</v>
       </c>
       <c r="R18">
-        <v>0.1709270830235393</v>
+        <v>0.1955503092598451</v>
       </c>
       <c r="S18">
-        <v>0.0191010747073924</v>
+        <v>0.039855545403124</v>
       </c>
       <c r="T18">
-        <v>0.0412005105075672</v>
+        <v>0.0708372174674506</v>
       </c>
       <c r="U18">
-        <v>0.06468256584889499</v>
+        <v>0.0999465313472357</v>
       </c>
       <c r="V18">
-        <v>0.0797229634774234</v>
-      </c>
-      <c r="W18">
-        <v>0.1836638450622558</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>3.430943928588123E-06</v>
+        <v>0.113314344354501</v>
+      </c>
+      <c r="W18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1864,70 +1936,70 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>0.0028543537398369</v>
+        <v>0.001742493474367</v>
       </c>
       <c r="E19">
-        <v>0.3305375277996063</v>
+        <v>0.0163828497535926</v>
       </c>
       <c r="F19">
-        <v>0.1748336491485436</v>
+        <v>0.0184842954578008</v>
       </c>
       <c r="G19">
-        <v>0.1088427546595738</v>
+        <v>0.0159872730947235</v>
       </c>
       <c r="H19">
-        <v>0.9678030014038086</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0.3305375277996063</v>
+        <v>0.0153923905359749</v>
       </c>
       <c r="J19">
-        <v>0.5245009660720825</v>
+        <v>0.047674069779539</v>
       </c>
       <c r="K19">
-        <v>0.5986351370811462</v>
+        <v>0.0716172143857824</v>
       </c>
       <c r="L19">
-        <v>0.6710257530212402</v>
+        <v>0.1045075331075337</v>
       </c>
       <c r="M19">
-        <v>0.7577260732650757</v>
+        <v>0.1740465303004092</v>
       </c>
       <c r="N19">
-        <v>0.0014292845735326</v>
+        <v>0.0008734217939433</v>
       </c>
       <c r="O19">
-        <v>0.3305375277996063</v>
+        <v>0.0191010747073924</v>
       </c>
       <c r="P19">
-        <v>0.1049001887440681</v>
+        <v>0.0120262802941301</v>
       </c>
       <c r="Q19">
-        <v>0.0598635151982307</v>
+        <v>0.009315581081668699</v>
       </c>
       <c r="R19">
-        <v>0.5251889824867249</v>
+        <v>0.1709270830235393</v>
       </c>
       <c r="S19">
-        <v>0.3305375277996063</v>
+        <v>0.0191010747073924</v>
       </c>
       <c r="T19">
-        <v>0.4576557278633117</v>
+        <v>0.0412005105075672</v>
       </c>
       <c r="U19">
-        <v>0.4932486116886139</v>
+        <v>0.06468256584889499</v>
       </c>
       <c r="V19">
-        <v>0.5029477477073669</v>
+        <v>0.0797229634774234</v>
       </c>
       <c r="W19">
-        <v>1094.347886800766</v>
+        <v>0.1836638450622558</v>
       </c>
       <c r="X19">
-        <v>69765474</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.2558238842311238</v>
+        <v>3.430943928588123E-06</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1941,70 +2013,70 @@
         <v>36</v>
       </c>
       <c r="D20">
-        <v>0.0014138506672147</v>
+        <v>0.0103461753505352</v>
       </c>
       <c r="E20">
-        <v>0.196469098329544</v>
+        <v>0.2855415344238281</v>
       </c>
       <c r="F20">
-        <v>0.1353325686521</v>
+        <v>0.14981210231781</v>
       </c>
       <c r="G20">
-        <v>0.0908718867735429</v>
+        <v>0.09502548398065171</v>
       </c>
       <c r="H20">
-        <v>0.9553707838058472</v>
+        <v>0.7871972322463989</v>
       </c>
       <c r="I20">
-        <v>0.196469098329544</v>
+        <v>0.2855415344238281</v>
       </c>
       <c r="J20">
-        <v>0.4059976935386657</v>
+        <v>0.4494363069534302</v>
       </c>
       <c r="K20">
-        <v>0.4997953772544861</v>
+        <v>0.5226401686668396</v>
       </c>
       <c r="L20">
-        <v>0.5871005058288574</v>
+        <v>0.5958068370819092</v>
       </c>
       <c r="M20">
-        <v>0.6936414241790771</v>
+        <v>0.6944599747657776</v>
       </c>
       <c r="N20">
-        <v>0.0007074488094076</v>
+        <v>0.0052073076367378</v>
       </c>
       <c r="O20">
-        <v>0.196469098329544</v>
+        <v>0.2855415344238281</v>
       </c>
       <c r="P20">
-        <v>0.08119954168796539</v>
+        <v>0.08988726139068599</v>
       </c>
       <c r="Q20">
-        <v>0.0499795377254486</v>
+        <v>0.0522640161216259</v>
       </c>
       <c r="R20">
-        <v>0.4163910448551178</v>
+        <v>0.4737372994422912</v>
       </c>
       <c r="S20">
-        <v>0.1913717985153198</v>
+        <v>0.2855415344238281</v>
       </c>
       <c r="T20">
-        <v>0.3319822251796722</v>
+        <v>0.3960790038108825</v>
       </c>
       <c r="U20">
-        <v>0.3761236369609833</v>
+        <v>0.4342045783996582</v>
       </c>
       <c r="V20">
-        <v>0.3869918882846832</v>
+        <v>0.4460942149162292</v>
       </c>
       <c r="W20">
-        <v>146530.9495928288</v>
+        <v>164244.7924022675</v>
       </c>
       <c r="X20">
-        <v>4826455</v>
+        <v>7112320</v>
       </c>
       <c r="Y20">
-        <v>844.5575434036764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2018,70 +2090,70 @@
         <v>37</v>
       </c>
       <c r="D21">
-        <v>0.001321967041479</v>
+        <v>0.0014138506672147</v>
       </c>
       <c r="E21">
-        <v>0.2354615479707718</v>
+        <v>0.196469098329544</v>
       </c>
       <c r="F21">
-        <v>0.1291066664788457</v>
+        <v>0.1353325686521</v>
       </c>
       <c r="G21">
-        <v>0.0826120310085864</v>
+        <v>0.0908718867735429</v>
       </c>
       <c r="H21">
-        <v>0.9493805170059204</v>
+        <v>0.9553707838058472</v>
       </c>
       <c r="I21">
-        <v>0.2354615479707718</v>
+        <v>0.196469098329544</v>
       </c>
       <c r="J21">
-        <v>0.3873200118541717</v>
+        <v>0.4059976935386657</v>
       </c>
       <c r="K21">
-        <v>0.4543661773204803</v>
+        <v>0.4997953772544861</v>
       </c>
       <c r="L21">
-        <v>0.5236819386482239</v>
+        <v>0.5871005058288574</v>
       </c>
       <c r="M21">
-        <v>0.6176842451095581</v>
+        <v>0.6936414241790771</v>
       </c>
       <c r="N21">
-        <v>0.0006614440353587</v>
+        <v>0.0007074488094076</v>
       </c>
       <c r="O21">
-        <v>0.2354615479707718</v>
+        <v>0.196469098329544</v>
       </c>
       <c r="P21">
-        <v>0.0774639993906021</v>
+        <v>0.08119954168796539</v>
       </c>
       <c r="Q21">
-        <v>0.0454366169869899</v>
+        <v>0.0499795377254486</v>
       </c>
       <c r="R21">
-        <v>0.4204726219177246</v>
+        <v>0.4163910448551178</v>
       </c>
       <c r="S21">
-        <v>0.2354801446199417</v>
+        <v>0.1913717985153198</v>
       </c>
       <c r="T21">
-        <v>0.3372074663639068</v>
+        <v>0.3319822251796722</v>
       </c>
       <c r="U21">
-        <v>0.3734556436538696</v>
+        <v>0.3761236369609833</v>
       </c>
       <c r="V21">
-        <v>0.3847646117210388</v>
+        <v>0.3869918882846832</v>
       </c>
       <c r="W21">
-        <v>646.7654030323029</v>
+        <v>146530.9495928288</v>
       </c>
       <c r="X21">
-        <v>8749230</v>
+        <v>4826455</v>
       </c>
       <c r="Y21">
-        <v>0.5044760178131362</v>
+        <v>844.5575434036764</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2095,64 +2167,70 @@
         <v>38</v>
       </c>
       <c r="D22">
-        <v>0.0008265378152638</v>
+        <v>0.001321967041479</v>
       </c>
       <c r="E22">
-        <v>0.0061602748078815</v>
+        <v>0.2354615479707718</v>
       </c>
       <c r="F22">
-        <v>0.0066737569242903</v>
+        <v>0.1291066664788457</v>
       </c>
       <c r="G22">
-        <v>0.0065095871280458</v>
+        <v>0.0826120310085864</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.9493805170059204</v>
       </c>
       <c r="I22">
-        <v>0.0058063965630152</v>
+        <v>0.2354615479707718</v>
       </c>
       <c r="J22">
-        <v>0.0169159549962691</v>
+        <v>0.3873200118541717</v>
       </c>
       <c r="K22">
-        <v>0.0287471042295307</v>
+        <v>0.4543661773204803</v>
       </c>
       <c r="L22">
-        <v>0.0455961900712567</v>
+        <v>0.5236819386482239</v>
       </c>
       <c r="M22">
-        <v>0.08489176489279961</v>
+        <v>0.6176842451095581</v>
       </c>
       <c r="N22">
-        <v>0.0004135584695696</v>
+        <v>0.0006614440353587</v>
       </c>
       <c r="O22">
-        <v>0.0071764547775836</v>
+        <v>0.2354615479707718</v>
       </c>
       <c r="P22">
-        <v>0.004413385297675</v>
+        <v>0.0774639993906021</v>
       </c>
       <c r="Q22">
-        <v>0.0038247547372663</v>
+        <v>0.0454366169869899</v>
       </c>
       <c r="R22">
-        <v>0.1361320328029295</v>
+        <v>0.4204726219177246</v>
       </c>
       <c r="S22">
-        <v>0.0071764547775836</v>
+        <v>0.2354801446199417</v>
       </c>
       <c r="T22">
-        <v>0.0161759435569603</v>
+        <v>0.3372074663639068</v>
       </c>
       <c r="U22">
-        <v>0.0290430300700328</v>
+        <v>0.3734556436538696</v>
       </c>
       <c r="V22">
-        <v>0.0382983446945548</v>
+        <v>0.3847646117210388</v>
       </c>
       <c r="W22">
-        <v>1439.7406</v>
+        <v>646.7654030323029</v>
+      </c>
+      <c r="X22">
+        <v>8749230</v>
+      </c>
+      <c r="Y22">
+        <v>0.5044760178131362</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2169,61 +2247,61 @@
         <v>0.0008265378152638</v>
       </c>
       <c r="E23">
-        <v>0.0222153198838996</v>
+        <v>0.0061602748078815</v>
       </c>
       <c r="F23">
-        <v>0.0251164225422198</v>
+        <v>0.0066737569242903</v>
       </c>
       <c r="G23">
-        <v>0.0200787835138195</v>
+        <v>0.0065095871280458</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.0199145758598603</v>
+        <v>0.0058063965630152</v>
       </c>
       <c r="J23">
-        <v>0.056639750307342</v>
+        <v>0.0169159549962691</v>
       </c>
       <c r="K23">
-        <v>0.07804181602778611</v>
+        <v>0.0287471042295307</v>
       </c>
       <c r="L23">
-        <v>0.1056575634785283</v>
+        <v>0.0455961900712567</v>
       </c>
       <c r="M23">
-        <v>0.1538084650395294</v>
+        <v>0.08489176489279961</v>
       </c>
       <c r="N23">
         <v>0.0004135584695696</v>
       </c>
       <c r="O23">
-        <v>0.0308023115172691</v>
+        <v>0.0071764547775836</v>
       </c>
       <c r="P23">
-        <v>0.0182717376696685</v>
+        <v>0.004413385297675</v>
       </c>
       <c r="Q23">
-        <v>0.0125117591721551</v>
+        <v>0.0038247547372663</v>
       </c>
       <c r="R23">
-        <v>0.1643705332541461</v>
+        <v>0.1361320328029295</v>
       </c>
       <c r="S23">
-        <v>0.0308023115172691</v>
+        <v>0.0071764547775836</v>
       </c>
       <c r="T23">
-        <v>0.0505979522274439</v>
+        <v>0.0161759435569603</v>
       </c>
       <c r="U23">
-        <v>0.0686320920770388</v>
+        <v>0.0290430300700328</v>
       </c>
       <c r="V23">
-        <v>0.07727435862776599</v>
-      </c>
-      <c r="W23">
-        <v>33.7482</v>
+        <v>0.0382983446945548</v>
+      </c>
+      <c r="W23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2240,67 +2318,61 @@
         <v>0.0008265378152638</v>
       </c>
       <c r="E24">
-        <v>0.0104073942751539</v>
+        <v>0.0222153198838996</v>
       </c>
       <c r="F24">
-        <v>0.0087850865835984</v>
+        <v>0.0251164225422198</v>
       </c>
       <c r="G24">
-        <v>0.007377460631924</v>
+        <v>0.0200787835138195</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.0096932922717249</v>
+        <v>0.0199145758598603</v>
       </c>
       <c r="J24">
-        <v>0.0218148669257035</v>
+        <v>0.056639750307342</v>
       </c>
       <c r="K24">
-        <v>0.0325086309660938</v>
+        <v>0.07804181602778611</v>
       </c>
       <c r="L24">
-        <v>0.0494445090089783</v>
+        <v>0.1056575634785283</v>
       </c>
       <c r="M24">
-        <v>0.0874257515091149</v>
+        <v>0.1538084650395294</v>
       </c>
       <c r="N24">
         <v>0.0004135584695696</v>
       </c>
       <c r="O24">
-        <v>0.0124983201182636</v>
+        <v>0.0308023115172691</v>
       </c>
       <c r="P24">
-        <v>0.0058594274963041</v>
+        <v>0.0182717376696685</v>
       </c>
       <c r="Q24">
-        <v>0.0043354387851094</v>
+        <v>0.0125117591721551</v>
       </c>
       <c r="R24">
-        <v>0.1383475437593051</v>
+        <v>0.1643705332541461</v>
       </c>
       <c r="S24">
-        <v>0.0124983201182636</v>
+        <v>0.0308023115172691</v>
       </c>
       <c r="T24">
-        <v>0.0203005871076327</v>
+        <v>0.0505979522274439</v>
       </c>
       <c r="U24">
-        <v>0.0329521412820696</v>
+        <v>0.0686320920770388</v>
       </c>
       <c r="V24">
-        <v>0.0415375092762237</v>
-      </c>
-      <c r="W24">
-        <v>0.2036879062652588</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>3.011317961613173E-06</v>
+        <v>0.07727435862776599</v>
+      </c>
+      <c r="W24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2314,70 +2386,70 @@
         <v>41</v>
       </c>
       <c r="D25">
-        <v>0.0013337822766681</v>
+        <v>0.0008265378152638</v>
       </c>
       <c r="E25">
-        <v>0.2410983294248581</v>
+        <v>0.0104073942751539</v>
       </c>
       <c r="F25">
-        <v>0.1299190144571993</v>
+        <v>0.0087850865835984</v>
       </c>
       <c r="G25">
-        <v>0.0831363080454266</v>
+        <v>0.007377460631924</v>
       </c>
       <c r="H25">
-        <v>0.9649700522422791</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0.2410983294248581</v>
+        <v>0.0096932922717249</v>
       </c>
       <c r="J25">
-        <v>0.3897570371627807</v>
+        <v>0.0218148669257035</v>
       </c>
       <c r="K25">
-        <v>0.4572497010231018</v>
+        <v>0.0325086309660938</v>
       </c>
       <c r="L25">
-        <v>0.5272538065910339</v>
+        <v>0.0494445090089783</v>
       </c>
       <c r="M25">
-        <v>0.6284555792808533</v>
+        <v>0.0874257515091149</v>
       </c>
       <c r="N25">
-        <v>0.000667352345772</v>
+        <v>0.0004135584695696</v>
       </c>
       <c r="O25">
-        <v>0.2410983294248581</v>
+        <v>0.0124983201182636</v>
       </c>
       <c r="P25">
-        <v>0.0779514089226722</v>
+        <v>0.0058594274963041</v>
       </c>
       <c r="Q25">
-        <v>0.0457249693572521</v>
+        <v>0.0043354387851094</v>
       </c>
       <c r="R25">
-        <v>0.4258036911487579</v>
+        <v>0.1383475437593051</v>
       </c>
       <c r="S25">
-        <v>0.2410797327756881</v>
+        <v>0.0124983201182636</v>
       </c>
       <c r="T25">
-        <v>0.3411926627159118</v>
+        <v>0.0203005871076327</v>
       </c>
       <c r="U25">
-        <v>0.3789361417293548</v>
+        <v>0.0329521412820696</v>
       </c>
       <c r="V25">
-        <v>0.391334980726242</v>
+        <v>0.0415375092762237</v>
       </c>
       <c r="W25">
-        <v>2534.750314712524</v>
+        <v>0.2036879062652588</v>
       </c>
       <c r="X25">
-        <v>70679127</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.8957690840549564</v>
+        <v>3.011317961613173E-06</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2391,70 +2463,70 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>0.0025208426027765</v>
+        <v>0.0345856621419279</v>
       </c>
       <c r="E26">
-        <v>0.3705018162727356</v>
+        <v>0.4327344894409179</v>
       </c>
       <c r="F26">
-        <v>0.2068961283398999</v>
+        <v>0.2099662025769551</v>
       </c>
       <c r="G26">
-        <v>0.1274868442007332</v>
+        <v>0.1277052681308147</v>
       </c>
       <c r="H26">
-        <v>0.9839094281196594</v>
+        <v>0.8008882403373718</v>
       </c>
       <c r="I26">
-        <v>0.3705018162727356</v>
+        <v>0.4327344894409179</v>
       </c>
       <c r="J26">
-        <v>0.6206883788108826</v>
+        <v>0.6298986077308655</v>
       </c>
       <c r="K26">
-        <v>0.7011776566505432</v>
+        <v>0.7023789882659912</v>
       </c>
       <c r="L26">
-        <v>0.7687435150146484</v>
+        <v>0.7682702541351318</v>
       </c>
       <c r="M26">
-        <v>0.8472851514816284</v>
+        <v>0.8468847274780273</v>
       </c>
       <c r="N26">
-        <v>0.0012620380148291</v>
+        <v>0.017674459144473</v>
       </c>
       <c r="O26">
-        <v>0.3705018162727356</v>
+        <v>0.4327344894409179</v>
       </c>
       <c r="P26">
-        <v>0.1241376772522926</v>
+        <v>0.1259797215461731</v>
       </c>
       <c r="Q26">
-        <v>0.0701177641749382</v>
+        <v>0.070237897336483</v>
       </c>
       <c r="R26">
-        <v>0.5740704536437988</v>
+        <v>0.6155419945716858</v>
       </c>
       <c r="S26">
-        <v>0.3474944829940796</v>
+        <v>0.4327344894409179</v>
       </c>
       <c r="T26">
-        <v>0.5196211338043213</v>
+        <v>0.5622748732566833</v>
       </c>
       <c r="U26">
-        <v>0.5533387660980225</v>
+        <v>0.5946553945541382</v>
       </c>
       <c r="V26">
-        <v>0.561211109161377</v>
+        <v>0.6025809049606323</v>
       </c>
       <c r="W26">
-        <v>214397.6955151558</v>
+        <v>105589.8217549324</v>
       </c>
       <c r="X26">
-        <v>4641985</v>
+        <v>5659264</v>
       </c>
       <c r="Y26">
-        <v>1622.869658847441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2468,70 +2540,70 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>0.0026919488069921</v>
+        <v>0.0025208426027765</v>
       </c>
       <c r="E27">
-        <v>0.3885764181613922</v>
+        <v>0.3705018162727356</v>
       </c>
       <c r="F27">
-        <v>0.1927653091649214</v>
+        <v>0.2068961283398999</v>
       </c>
       <c r="G27">
-        <v>0.1185149097245586</v>
+        <v>0.1274868442007332</v>
       </c>
       <c r="H27">
-        <v>0.9732430577278136</v>
+        <v>0.9839094281196594</v>
       </c>
       <c r="I27">
-        <v>0.3885764181613922</v>
+        <v>0.3705018162727356</v>
       </c>
       <c r="J27">
-        <v>0.5782959461212158</v>
+        <v>0.6206883788108826</v>
       </c>
       <c r="K27">
-        <v>0.6518320441246033</v>
+        <v>0.7011776566505432</v>
       </c>
       <c r="L27">
-        <v>0.7194342613220215</v>
+        <v>0.7687435150146484</v>
       </c>
       <c r="M27">
-        <v>0.8023262023925781</v>
+        <v>0.8472851514816284</v>
       </c>
       <c r="N27">
-        <v>0.001347838435322</v>
+        <v>0.0012620380148291</v>
       </c>
       <c r="O27">
-        <v>0.3885764181613922</v>
+        <v>0.3705018162727356</v>
       </c>
       <c r="P27">
-        <v>0.1156591847538948</v>
+        <v>0.1241376772522926</v>
       </c>
       <c r="Q27">
-        <v>0.0651831999421119</v>
+        <v>0.0701177641749382</v>
       </c>
       <c r="R27">
-        <v>0.5733696818351746</v>
+        <v>0.5740704536437988</v>
       </c>
       <c r="S27">
-        <v>0.3882487714290619</v>
+        <v>0.3474944829940796</v>
       </c>
       <c r="T27">
-        <v>0.5134545564651489</v>
+        <v>0.5196211338043213</v>
       </c>
       <c r="U27">
-        <v>0.547068178653717</v>
+        <v>0.5533387660980225</v>
       </c>
       <c r="V27">
-        <v>0.5559471249580383</v>
+        <v>0.561211109161377</v>
       </c>
       <c r="W27">
-        <v>359.0720317363739</v>
+        <v>214397.6955151558</v>
       </c>
       <c r="X27">
-        <v>5808110</v>
+        <v>4641985</v>
       </c>
       <c r="Y27">
-        <v>0.1529382048948375</v>
+        <v>1622.869658847441</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2545,64 +2617,70 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>0.0012836451355991</v>
+        <v>0.0026919488069921</v>
       </c>
       <c r="E28">
-        <v>0.0167561789890651</v>
+        <v>0.3885764181613922</v>
       </c>
       <c r="F28">
-        <v>0.0197017741299931</v>
+        <v>0.1927653091649214</v>
       </c>
       <c r="G28">
-        <v>0.0164529179794359</v>
+        <v>0.1185149097245586</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.9732430577278136</v>
       </c>
       <c r="I28">
-        <v>0.0159421167995709</v>
+        <v>0.3885764181613922</v>
       </c>
       <c r="J28">
-        <v>0.0532275936002261</v>
+        <v>0.5782959461212158</v>
       </c>
       <c r="K28">
-        <v>0.07913480189498071</v>
+        <v>0.6518320441246033</v>
       </c>
       <c r="L28">
-        <v>0.1175619558139961</v>
+        <v>0.7194342613220215</v>
       </c>
       <c r="M28">
-        <v>0.1963431881653322</v>
+        <v>0.8023262023925781</v>
       </c>
       <c r="N28">
-        <v>0.0006424164999173</v>
+        <v>0.001347838435322</v>
       </c>
       <c r="O28">
-        <v>0.0188251618871415</v>
+        <v>0.3885764181613922</v>
       </c>
       <c r="P28">
-        <v>0.0124421831637369</v>
+        <v>0.1156591847538948</v>
       </c>
       <c r="Q28">
-        <v>0.009359389454209501</v>
+        <v>0.0651831999421119</v>
       </c>
       <c r="R28">
-        <v>0.1724906024589586</v>
+        <v>0.5733696818351746</v>
       </c>
       <c r="S28">
-        <v>0.0188251618871415</v>
+        <v>0.3882487714290619</v>
       </c>
       <c r="T28">
-        <v>0.044935268581566</v>
+        <v>0.5134545564651489</v>
       </c>
       <c r="U28">
-        <v>0.0712697152489814</v>
+        <v>0.547068178653717</v>
       </c>
       <c r="V28">
-        <v>0.0861901419148729</v>
+        <v>0.5559471249580383</v>
       </c>
       <c r="W28">
-        <v>997.8453</v>
+        <v>359.0720317363739</v>
+      </c>
+      <c r="X28">
+        <v>5808110</v>
+      </c>
+      <c r="Y28">
+        <v>0.1529382048948375</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2619,61 +2697,61 @@
         <v>0.0012836451355991</v>
       </c>
       <c r="E29">
-        <v>0.0326678401149844</v>
+        <v>0.0167561789890651</v>
       </c>
       <c r="F29">
-        <v>0.0346591483589271</v>
+        <v>0.0197017741299931</v>
       </c>
       <c r="G29">
-        <v>0.0284357547327528</v>
+        <v>0.0164529179794359</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0.031017666190222</v>
+        <v>0.0159421167995709</v>
       </c>
       <c r="J29">
-        <v>0.090855680109414</v>
+        <v>0.0532275936002261</v>
       </c>
       <c r="K29">
-        <v>0.131786213610327</v>
+        <v>0.07913480189498071</v>
       </c>
       <c r="L29">
-        <v>0.1850468642908019</v>
+        <v>0.1175619558139961</v>
       </c>
       <c r="M29">
-        <v>0.2788590239435228</v>
+        <v>0.1963431881653322</v>
       </c>
       <c r="N29">
         <v>0.0006424164999173</v>
       </c>
       <c r="O29">
-        <v>0.0372109158186864</v>
+        <v>0.0188251618871415</v>
       </c>
       <c r="P29">
-        <v>0.0223774283071249</v>
+        <v>0.0124421831637369</v>
       </c>
       <c r="Q29">
-        <v>0.016431544865867</v>
+        <v>0.009359389454209501</v>
       </c>
       <c r="R29">
-        <v>0.2013617067907854</v>
+        <v>0.1724906024589586</v>
       </c>
       <c r="S29">
-        <v>0.0372109158186864</v>
+        <v>0.0188251618871415</v>
       </c>
       <c r="T29">
-        <v>0.07818011018051919</v>
+        <v>0.044935268581566</v>
       </c>
       <c r="U29">
-        <v>0.1120315144331188</v>
+        <v>0.0712697152489814</v>
       </c>
       <c r="V29">
-        <v>0.1263467683197098</v>
-      </c>
-      <c r="W29">
-        <v>27.9478</v>
+        <v>0.0861901419148729</v>
+      </c>
+      <c r="W29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2690,67 +2768,61 @@
         <v>0.0012836451355991</v>
       </c>
       <c r="E30">
-        <v>0.0182958222161393</v>
+        <v>0.0326678401149844</v>
       </c>
       <c r="F30">
-        <v>0.023007339479299</v>
+        <v>0.0346591483589271</v>
       </c>
       <c r="G30">
-        <v>0.0189385156202868</v>
+        <v>0.0284357547327528</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0.0175882560239637</v>
+        <v>0.031017666190222</v>
       </c>
       <c r="J30">
-        <v>0.0619756522118066</v>
+        <v>0.090855680109414</v>
       </c>
       <c r="K30">
-        <v>0.0912438360656751</v>
+        <v>0.131786213610327</v>
       </c>
       <c r="L30">
-        <v>0.1345829348221396</v>
+        <v>0.1850468642908019</v>
       </c>
       <c r="M30">
-        <v>0.2161154159244797</v>
+        <v>0.2788590239435228</v>
       </c>
       <c r="N30">
         <v>0.0006424164999173</v>
       </c>
       <c r="O30">
-        <v>0.020004625346901</v>
+        <v>0.0372109158186864</v>
       </c>
       <c r="P30">
-        <v>0.0145605920444034</v>
+        <v>0.0223774283071249</v>
       </c>
       <c r="Q30">
-        <v>0.0107724329324707</v>
+        <v>0.016431544865867</v>
       </c>
       <c r="R30">
-        <v>0.1787814746217823</v>
+        <v>0.2013617067907854</v>
       </c>
       <c r="S30">
-        <v>0.020004625346901</v>
+        <v>0.0372109158186864</v>
       </c>
       <c r="T30">
-        <v>0.0514545113937391</v>
+        <v>0.07818011018051919</v>
       </c>
       <c r="U30">
-        <v>0.0796904628887885</v>
+        <v>0.1120315144331188</v>
       </c>
       <c r="V30">
-        <v>0.0958686711368744</v>
-      </c>
-      <c r="W30">
-        <v>0.2820250988006592</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>4.058045901481408E-06</v>
+        <v>0.1263467683197098</v>
+      </c>
+      <c r="W30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2764,70 +2836,70 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>0.002902324478469</v>
+        <v>0.0012836451355991</v>
       </c>
       <c r="E31">
-        <v>0.4126394689083099</v>
+        <v>0.0182958222161393</v>
       </c>
       <c r="F31">
-        <v>0.2004647631612089</v>
+        <v>0.023007339479299</v>
       </c>
       <c r="G31">
-        <v>0.1227146121096019</v>
+        <v>0.0189385156202868</v>
       </c>
       <c r="H31">
-        <v>0.9811426997184752</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0.4126394689083099</v>
+        <v>0.0175882560239637</v>
       </c>
       <c r="J31">
-        <v>0.6013942956924438</v>
+        <v>0.0619756522118066</v>
       </c>
       <c r="K31">
-        <v>0.6749303936958313</v>
+        <v>0.0912438360656751</v>
       </c>
       <c r="L31">
-        <v>0.7455541491508484</v>
+        <v>0.1345829348221396</v>
       </c>
       <c r="M31">
-        <v>0.8285552859306335</v>
+        <v>0.2161154159244797</v>
       </c>
       <c r="N31">
-        <v>0.0014533117646351</v>
+        <v>0.0006424164999173</v>
       </c>
       <c r="O31">
-        <v>0.4126394689083099</v>
+        <v>0.020004625346901</v>
       </c>
       <c r="P31">
-        <v>0.1202788576483726</v>
+        <v>0.0145605920444034</v>
       </c>
       <c r="Q31">
-        <v>0.06749303638935079</v>
+        <v>0.0107724329324707</v>
       </c>
       <c r="R31">
-        <v>0.5954541563987732</v>
+        <v>0.1787814746217823</v>
       </c>
       <c r="S31">
-        <v>0.4127122759819031</v>
+        <v>0.020004625346901</v>
       </c>
       <c r="T31">
-        <v>0.5375981330871582</v>
+        <v>0.0514545113937391</v>
       </c>
       <c r="U31">
-        <v>0.5720770359039307</v>
+        <v>0.0796904628887885</v>
       </c>
       <c r="V31">
-        <v>0.5809441208839417</v>
+        <v>0.0958686711368744</v>
       </c>
       <c r="W31">
-        <v>17247.05885076523</v>
+        <v>0.2820250988006592</v>
       </c>
       <c r="X31">
-        <v>69945537</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>34.76554703195105</v>
+        <v>4.058045901481408E-06</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2841,70 +2913,70 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>0.06929395355180749</v>
+        <v>0.4528423062036148</v>
       </c>
       <c r="E32">
-        <v>0.72910076379776</v>
+        <v>0.7167871594429016</v>
       </c>
       <c r="F32">
-        <v>0.3096098734272849</v>
+        <v>0.3096851946579085</v>
       </c>
       <c r="G32">
-        <v>0.1744854726082037</v>
+        <v>0.1752454451292999</v>
       </c>
       <c r="H32">
-        <v>0.9887031316757202</v>
+        <v>0.8751694560050964</v>
       </c>
       <c r="I32">
-        <v>0.72910076379776</v>
+        <v>0.7167871594429016</v>
       </c>
       <c r="J32">
-        <v>0.9288296699523926</v>
+        <v>0.9290555715560912</v>
       </c>
       <c r="K32">
-        <v>0.9596701264381408</v>
+        <v>0.96384996175766</v>
       </c>
       <c r="L32">
-        <v>0.9819250106811525</v>
+        <v>0.9840713739395142</v>
       </c>
       <c r="M32">
-        <v>0.9963849782943726</v>
+        <v>0.9980795383453368</v>
       </c>
       <c r="N32">
-        <v>0.0359051972627639</v>
+        <v>0.3054449260234833</v>
       </c>
       <c r="O32">
-        <v>0.72910076379776</v>
+        <v>0.7167871594429016</v>
       </c>
       <c r="P32">
-        <v>0.1857659220695495</v>
+        <v>0.1858111172914505</v>
       </c>
       <c r="Q32">
-        <v>0.09596700966358181</v>
+        <v>0.0963849946856498</v>
       </c>
       <c r="R32">
-        <v>0.8587470054626465</v>
+        <v>0.8548080325126648</v>
       </c>
       <c r="S32">
-        <v>0.72910076379776</v>
+        <v>0.7167871594429016</v>
       </c>
       <c r="T32">
-        <v>0.849577784538269</v>
+        <v>0.8464432954788208</v>
       </c>
       <c r="U32">
-        <v>0.8581502437591553</v>
+        <v>0.8544860482215881</v>
       </c>
       <c r="V32">
-        <v>0.8587470054626465</v>
+        <v>0.8548080325126648</v>
       </c>
       <c r="W32">
-        <v>4103.80993437767</v>
+        <v>324.8513634204865</v>
       </c>
       <c r="X32">
-        <v>4397014</v>
+        <v>1752832</v>
       </c>
       <c r="Y32">
-        <v>4.709043152358867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -2918,70 +2990,70 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>0.1081633136026861</v>
+        <v>0.06929395355180749</v>
       </c>
       <c r="E33">
-        <v>0.7034568190574646</v>
+        <v>0.72910076379776</v>
       </c>
       <c r="F33">
-        <v>0.3039237856864929</v>
+        <v>0.3096098734272849</v>
       </c>
       <c r="G33">
-        <v>0.1725341923965895</v>
+        <v>0.1744854726082037</v>
       </c>
       <c r="H33">
-        <v>0.9810212254524232</v>
+        <v>0.9887031316757202</v>
       </c>
       <c r="I33">
-        <v>0.7034568190574646</v>
+        <v>0.72910076379776</v>
       </c>
       <c r="J33">
-        <v>0.9117713570594788</v>
+        <v>0.9288296699523926</v>
       </c>
       <c r="K33">
-        <v>0.9489380717277528</v>
+        <v>0.9596701264381408</v>
       </c>
       <c r="L33">
-        <v>0.9763895273208618</v>
+        <v>0.9819250106811525</v>
       </c>
       <c r="M33">
-        <v>0.9950293898582458</v>
+        <v>0.9963849782943726</v>
       </c>
       <c r="N33">
-        <v>0.0572370141744613</v>
+        <v>0.0359051972627639</v>
       </c>
       <c r="O33">
-        <v>0.7034568190574646</v>
+        <v>0.72910076379776</v>
       </c>
       <c r="P33">
-        <v>0.1823542714118957</v>
+        <v>0.1857659220695495</v>
       </c>
       <c r="Q33">
-        <v>0.09489380568265909</v>
+        <v>0.09596700966358181</v>
       </c>
       <c r="R33">
-        <v>0.8422353267669678</v>
+        <v>0.8587470054626465</v>
       </c>
       <c r="S33">
-        <v>0.7034568190574646</v>
+        <v>0.72910076379776</v>
       </c>
       <c r="T33">
-        <v>0.830578088760376</v>
+        <v>0.849577784538269</v>
       </c>
       <c r="U33">
-        <v>0.8414117693901062</v>
+        <v>0.8581502437591553</v>
       </c>
       <c r="V33">
-        <v>0.8422353267669678</v>
+        <v>0.8587470054626465</v>
       </c>
       <c r="W33">
-        <v>667.8732690811157</v>
+        <v>4103.80993437767</v>
       </c>
       <c r="X33">
-        <v>85140</v>
+        <v>4397014</v>
       </c>
       <c r="Y33">
-        <v>9.84574581573999</v>
+        <v>4.709043152358867</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -2995,64 +3067,70 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>0.0315228300220681</v>
+        <v>0.1081633136026861</v>
       </c>
       <c r="E34">
-        <v>0.2481475675932547</v>
+        <v>0.7034568190574646</v>
       </c>
       <c r="F34">
-        <v>0.2100237144269277</v>
+        <v>0.3039237856864929</v>
       </c>
       <c r="G34">
-        <v>0.1589599563221369</v>
+        <v>0.1725341923965895</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.9810212254524232</v>
       </c>
       <c r="I34">
-        <v>0.2360439978902204</v>
+        <v>0.7034568190574646</v>
       </c>
       <c r="J34">
-        <v>0.5461151792957782</v>
+        <v>0.9117713570594788</v>
       </c>
       <c r="K34">
-        <v>0.7304254682551508</v>
+        <v>0.9489380717277528</v>
       </c>
       <c r="L34">
-        <v>0.8478691700193712</v>
+        <v>0.9763895273208618</v>
       </c>
       <c r="M34">
-        <v>0.940043709332936</v>
+        <v>0.9950293898582458</v>
       </c>
       <c r="N34">
-        <v>0.0161524036581235</v>
+        <v>0.0572370141744613</v>
       </c>
       <c r="O34">
-        <v>0.2780509611086276</v>
+        <v>0.7034568190574646</v>
       </c>
       <c r="P34">
-        <v>0.134883027864708</v>
+        <v>0.1823542714118957</v>
       </c>
       <c r="Q34">
-        <v>0.0913872746237602</v>
+        <v>0.09489380568265909</v>
       </c>
       <c r="R34">
-        <v>0.5346020107687763</v>
+        <v>0.8422353267669678</v>
       </c>
       <c r="S34">
-        <v>0.2780509611086276</v>
+        <v>0.7034568190574646</v>
       </c>
       <c r="T34">
-        <v>0.4717008755416678</v>
+        <v>0.830578088760376</v>
       </c>
       <c r="U34">
-        <v>0.524151422999085</v>
+        <v>0.8414117693901062</v>
       </c>
       <c r="V34">
-        <v>0.5346020107687763</v>
+        <v>0.8422353267669678</v>
       </c>
       <c r="W34">
-        <v>69.3459</v>
+        <v>667.8732690811157</v>
+      </c>
+      <c r="X34">
+        <v>85140</v>
+      </c>
+      <c r="Y34">
+        <v>9.84574581573999</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3069,61 +3147,61 @@
         <v>0.0315228300220681</v>
       </c>
       <c r="E35">
-        <v>0.2613497729277804</v>
+        <v>0.2481475675932547</v>
       </c>
       <c r="F35">
-        <v>0.2246466054020744</v>
+        <v>0.2100237144269277</v>
       </c>
       <c r="G35">
-        <v>0.1636161624339857</v>
+        <v>0.1589599563221369</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0.2474729950590478</v>
+        <v>0.2360439978902204</v>
       </c>
       <c r="J35">
-        <v>0.5814597214239596</v>
+        <v>0.5461151792957782</v>
       </c>
       <c r="K35">
-        <v>0.7490459870433051</v>
+        <v>0.7304254682551508</v>
       </c>
       <c r="L35">
-        <v>0.869196095961854</v>
+        <v>0.8478691700193712</v>
       </c>
       <c r="M35">
-        <v>0.9635854898259908</v>
+        <v>0.940043709332936</v>
       </c>
       <c r="N35">
         <v>0.0161524036581235</v>
       </c>
       <c r="O35">
-        <v>0.2956340336760542</v>
+        <v>0.2780509611086276</v>
       </c>
       <c r="P35">
-        <v>0.144628222321571</v>
+        <v>0.134883027864708</v>
       </c>
       <c r="Q35">
-        <v>0.09418864550738459</v>
+        <v>0.0913872746237602</v>
       </c>
       <c r="R35">
-        <v>0.555077327499603</v>
+        <v>0.5346020107687763</v>
       </c>
       <c r="S35">
-        <v>0.2956340336760542</v>
+        <v>0.2780509611086276</v>
       </c>
       <c r="T35">
-        <v>0.4955748687738332</v>
+        <v>0.4717008755416678</v>
       </c>
       <c r="U35">
-        <v>0.5487547693632897</v>
+        <v>0.524151422999085</v>
       </c>
       <c r="V35">
-        <v>0.555077327499603</v>
-      </c>
-      <c r="W35">
-        <v>3.4404</v>
+        <v>0.5346020107687763</v>
+      </c>
+      <c r="W35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3140,67 +3218,61 @@
         <v>0.0315228300220681</v>
       </c>
       <c r="E36">
-        <v>0.2638072402936071</v>
+        <v>0.2613497729277804</v>
       </c>
       <c r="F36">
-        <v>0.214422406845289</v>
+        <v>0.2246466054020744</v>
       </c>
       <c r="G36">
-        <v>0.1611679372516205</v>
+        <v>0.1636161624339857</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0.2502110370796109</v>
+        <v>0.2474729950590478</v>
       </c>
       <c r="J36">
-        <v>0.5570253646583552</v>
+        <v>0.5814597214239596</v>
       </c>
       <c r="K36">
-        <v>0.742965824883572</v>
+        <v>0.7490459870433051</v>
       </c>
       <c r="L36">
-        <v>0.8699893919719578</v>
+        <v>0.869196095961854</v>
       </c>
       <c r="M36">
-        <v>0.970757794003212</v>
+        <v>0.9635854898259908</v>
       </c>
       <c r="N36">
         <v>0.0161524036581235</v>
       </c>
       <c r="O36">
-        <v>0.2971241245715988</v>
+        <v>0.2956340336760542</v>
       </c>
       <c r="P36">
-        <v>0.1377440023841541</v>
+        <v>0.144628222321571</v>
       </c>
       <c r="Q36">
-        <v>0.0925644464312407</v>
+        <v>0.09418864550738459</v>
       </c>
       <c r="R36">
-        <v>0.5510604687444142</v>
+        <v>0.555077327499603</v>
       </c>
       <c r="S36">
-        <v>0.2971241245715988</v>
+        <v>0.2956340336760542</v>
       </c>
       <c r="T36">
-        <v>0.4892838894006368</v>
+        <v>0.4955748687738332</v>
       </c>
       <c r="U36">
-        <v>0.5458682622277008</v>
+        <v>0.5487547693632897</v>
       </c>
       <c r="V36">
-        <v>0.5510604687444142</v>
-      </c>
-      <c r="W36">
-        <v>0.2959823608398437</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>2.640219368349947E-06</v>
+        <v>0.555077327499603</v>
+      </c>
+      <c r="W36" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3214,70 +3286,70 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>0.1058814791743228</v>
+        <v>0.0315228300220681</v>
       </c>
       <c r="E37">
-        <v>0.7333936095237732</v>
+        <v>0.2638072402936071</v>
       </c>
       <c r="F37">
-        <v>0.3050534683797094</v>
+        <v>0.214422406845289</v>
       </c>
       <c r="G37">
-        <v>0.1726779745629996</v>
+        <v>0.1611679372516205</v>
       </c>
       <c r="H37">
-        <v>0.9672390222549438</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0.7333936095237732</v>
+        <v>0.2502110370796109</v>
       </c>
       <c r="J37">
-        <v>0.9151604175567628</v>
+        <v>0.5570253646583552</v>
       </c>
       <c r="K37">
-        <v>0.9497288465499878</v>
+        <v>0.742965824883572</v>
       </c>
       <c r="L37">
-        <v>0.9746949672698976</v>
+        <v>0.8699893919719578</v>
       </c>
       <c r="M37">
-        <v>0.9945774674415588</v>
+        <v>0.970757794003212</v>
       </c>
       <c r="N37">
-        <v>0.0560061745345592</v>
+        <v>0.0161524036581235</v>
       </c>
       <c r="O37">
-        <v>0.7333936095237732</v>
+        <v>0.2971241245715988</v>
       </c>
       <c r="P37">
-        <v>0.1830320805311203</v>
+        <v>0.1377440023841541</v>
       </c>
       <c r="Q37">
-        <v>0.0949728861451149</v>
+        <v>0.0925644464312407</v>
       </c>
       <c r="R37">
-        <v>0.8552441596984863</v>
+        <v>0.5510604687444142</v>
       </c>
       <c r="S37">
-        <v>0.7333936095237732</v>
+        <v>0.2971241245715988</v>
       </c>
       <c r="T37">
-        <v>0.8439829349517822</v>
+        <v>0.4892838894006368</v>
       </c>
       <c r="U37">
-        <v>0.8543497920036316</v>
+        <v>0.5458682622277008</v>
       </c>
       <c r="V37">
-        <v>0.8552441596984863</v>
+        <v>0.5510604687444142</v>
       </c>
       <c r="W37">
-        <v>142.6459674835205</v>
+        <v>0.2959823608398437</v>
       </c>
       <c r="X37">
-        <v>68971350</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.027287259167071</v>
+        <v>2.640219368349947E-06</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3291,70 +3363,70 @@
         <v>36</v>
       </c>
       <c r="D38">
-        <v>0.0439329225017238</v>
+        <v>0.4391224721395136</v>
       </c>
       <c r="E38">
-        <v>0.7507765293121338</v>
+        <v>0.7385156154632568</v>
       </c>
       <c r="F38">
-        <v>0.3086207823620902</v>
+        <v>0.3094109379582934</v>
       </c>
       <c r="G38">
-        <v>0.1743278853164231</v>
+        <v>0.1753979246478435</v>
       </c>
       <c r="H38">
-        <v>0.9932973384857178</v>
+        <v>0.8835213184356689</v>
       </c>
       <c r="I38">
-        <v>0.7507765293121338</v>
+        <v>0.7385156154632568</v>
       </c>
       <c r="J38">
-        <v>0.9258623719215392</v>
+        <v>0.9282327890396118</v>
       </c>
       <c r="K38">
-        <v>0.9588033556938172</v>
+        <v>0.9646885991096495</v>
       </c>
       <c r="L38">
-        <v>0.9784207940101624</v>
+        <v>0.9839790463447572</v>
       </c>
       <c r="M38">
-        <v>0.9935426115989684</v>
+        <v>0.995586097240448</v>
       </c>
       <c r="N38">
-        <v>0.0224632285535335</v>
+        <v>0.2921667098999023</v>
       </c>
       <c r="O38">
-        <v>0.7507765293121338</v>
+        <v>0.7385156154632568</v>
       </c>
       <c r="P38">
-        <v>0.1851724684238433</v>
+        <v>0.1856465637683868</v>
       </c>
       <c r="Q38">
-        <v>0.09588033705949781</v>
+        <v>0.0964688584208488</v>
       </c>
       <c r="R38">
-        <v>0.8679625988006592</v>
+        <v>0.8635098934173584</v>
       </c>
       <c r="S38">
-        <v>0.7508582472801208</v>
+        <v>0.7385156154632568</v>
       </c>
       <c r="T38">
-        <v>0.858952522277832</v>
+        <v>0.8555105924606323</v>
       </c>
       <c r="U38">
-        <v>0.8669196963310242</v>
+        <v>0.8627889156341553</v>
       </c>
       <c r="V38">
-        <v>0.8678736686706543</v>
+        <v>0.8634742498397827</v>
       </c>
       <c r="W38">
-        <v>2935.139235258102</v>
+        <v>704.5501158237457</v>
       </c>
       <c r="X38">
-        <v>4403206</v>
+        <v>2171392</v>
       </c>
       <c r="Y38">
-        <v>2.001622838591311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3368,70 +3440,70 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>0.0596715678170629</v>
+        <v>0.0439329225017238</v>
       </c>
       <c r="E39">
-        <v>0.706146776676178</v>
+        <v>0.7507765293121338</v>
       </c>
       <c r="F39">
-        <v>0.3028990311755073</v>
+        <v>0.3086207823620902</v>
       </c>
       <c r="G39">
-        <v>0.1726485106570661</v>
+        <v>0.1743278853164231</v>
       </c>
       <c r="H39">
-        <v>0.9901095032691956</v>
+        <v>0.9932973384857178</v>
       </c>
       <c r="I39">
-        <v>0.706146776676178</v>
+        <v>0.7507765293121338</v>
       </c>
       <c r="J39">
-        <v>0.9086970686912536</v>
+        <v>0.9258623719215392</v>
       </c>
       <c r="K39">
-        <v>0.9495667815208436</v>
+        <v>0.9588033556938172</v>
       </c>
       <c r="L39">
-        <v>0.9748242497444152</v>
+        <v>0.9784207940101624</v>
       </c>
       <c r="M39">
-        <v>0.9933791160583496</v>
+        <v>0.9935426115989684</v>
       </c>
       <c r="N39">
-        <v>0.0307627841830253</v>
+        <v>0.0224632285535335</v>
       </c>
       <c r="O39">
-        <v>0.706146776676178</v>
+        <v>0.7507765293121338</v>
       </c>
       <c r="P39">
-        <v>0.1817394196987152</v>
+        <v>0.1851724684238433</v>
       </c>
       <c r="Q39">
-        <v>0.09495668113231651</v>
+        <v>0.09588033705949781</v>
       </c>
       <c r="R39">
-        <v>0.8435728549957275</v>
+        <v>0.8679625988006592</v>
       </c>
       <c r="S39">
-        <v>0.7060650587081909</v>
+        <v>0.7508582472801208</v>
       </c>
       <c r="T39">
-        <v>0.8322452306747437</v>
+        <v>0.858952522277832</v>
       </c>
       <c r="U39">
-        <v>0.8425130248069763</v>
+        <v>0.8669196963310242</v>
       </c>
       <c r="V39">
-        <v>0.843317449092865</v>
+        <v>0.8678736686706543</v>
       </c>
       <c r="W39">
-        <v>9.554208993911743</v>
+        <v>2935.139235258102</v>
       </c>
       <c r="X39">
-        <v>166294</v>
+        <v>4403206</v>
       </c>
       <c r="Y39">
-        <v>0.0005348140468204</v>
+        <v>2.001622838591311</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3445,64 +3517,70 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>0.0204883469880964</v>
+        <v>0.0596715678170629</v>
       </c>
       <c r="E40">
-        <v>0.1833932454133974</v>
+        <v>0.706146776676178</v>
       </c>
       <c r="F40">
-        <v>0.1696804871217944</v>
+        <v>0.3028990311755073</v>
       </c>
       <c r="G40">
-        <v>0.1356843493353343</v>
+        <v>0.1726485106570661</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.9901095032691956</v>
       </c>
       <c r="I40">
-        <v>0.1735750384939297</v>
+        <v>0.706146776676178</v>
       </c>
       <c r="J40">
-        <v>0.4384763667720795</v>
+        <v>0.9086970686912536</v>
       </c>
       <c r="K40">
-        <v>0.6175784220217966</v>
+        <v>0.9495667815208436</v>
       </c>
       <c r="L40">
-        <v>0.7810418497855643</v>
+        <v>0.9748242497444152</v>
       </c>
       <c r="M40">
-        <v>0.9119534789435506</v>
+        <v>0.9933791160583496</v>
       </c>
       <c r="N40">
-        <v>0.0104596308281984</v>
+        <v>0.0307627841830253</v>
       </c>
       <c r="O40">
-        <v>0.2094073584489975</v>
+        <v>0.706146776676178</v>
       </c>
       <c r="P40">
-        <v>0.1100242344128747</v>
+        <v>0.1817394196987152</v>
       </c>
       <c r="Q40">
-        <v>0.0785525446133595</v>
+        <v>0.09495668113231651</v>
       </c>
       <c r="R40">
-        <v>0.47426834319262</v>
+        <v>0.8435728549957275</v>
       </c>
       <c r="S40">
-        <v>0.2094073584489975</v>
+        <v>0.7060650587081909</v>
       </c>
       <c r="T40">
-        <v>0.3871233884163604</v>
+        <v>0.8322452306747437</v>
       </c>
       <c r="U40">
-        <v>0.4593810214850938</v>
+        <v>0.8425130248069763</v>
       </c>
       <c r="V40">
-        <v>0.4689150364546233</v>
+        <v>0.843317449092865</v>
       </c>
       <c r="W40">
-        <v>100.5543</v>
+        <v>9.554208993911743</v>
+      </c>
+      <c r="X40">
+        <v>166294</v>
+      </c>
+      <c r="Y40">
+        <v>0.0005348140468204</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -3519,61 +3597,61 @@
         <v>0.0204883469880964</v>
       </c>
       <c r="E41">
-        <v>0.2318950330923174</v>
+        <v>0.1833932454133974</v>
       </c>
       <c r="F41">
-        <v>0.2075360352918649</v>
+        <v>0.1696804871217944</v>
       </c>
       <c r="G41">
-        <v>0.1509042534316782</v>
+        <v>0.1356843493353343</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0.2182270753386301</v>
+        <v>0.1735750384939297</v>
       </c>
       <c r="J41">
-        <v>0.5317925916499152</v>
+        <v>0.4384763667720795</v>
       </c>
       <c r="K41">
-        <v>0.6824305334140393</v>
+        <v>0.6175784220217966</v>
       </c>
       <c r="L41">
-        <v>0.7962258881732145</v>
+        <v>0.7810418497855643</v>
       </c>
       <c r="M41">
-        <v>0.9121010554794574</v>
+        <v>0.9119534789435506</v>
       </c>
       <c r="N41">
         <v>0.0104596308281984</v>
       </c>
       <c r="O41">
-        <v>0.2672394800616876</v>
+        <v>0.2094073584489975</v>
       </c>
       <c r="P41">
-        <v>0.1349195858118658</v>
+        <v>0.1100242344128747</v>
       </c>
       <c r="Q41">
-        <v>0.087519277373881</v>
+        <v>0.0785525446133595</v>
       </c>
       <c r="R41">
-        <v>0.5241116011679576</v>
+        <v>0.47426834319262</v>
       </c>
       <c r="S41">
-        <v>0.2672394800616876</v>
+        <v>0.2094073584489975</v>
       </c>
       <c r="T41">
-        <v>0.4533504536994604</v>
+        <v>0.3871233884163604</v>
       </c>
       <c r="U41">
-        <v>0.5094749439233214</v>
+        <v>0.4593810214850938</v>
       </c>
       <c r="V41">
-        <v>0.5209789951845107</v>
-      </c>
-      <c r="W41">
-        <v>4.3565</v>
+        <v>0.4689150364546233</v>
+      </c>
+      <c r="W41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -3590,67 +3668,61 @@
         <v>0.0204883469880964</v>
       </c>
       <c r="E42">
-        <v>0.2168751095628103</v>
+        <v>0.2318950330923174</v>
       </c>
       <c r="F42">
-        <v>0.1890298434059479</v>
+        <v>0.2075360352918649</v>
       </c>
       <c r="G42">
-        <v>0.1438266202097803</v>
+        <v>0.1509042534316782</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0.2043821178799912</v>
+        <v>0.2182270753386301</v>
       </c>
       <c r="J42">
-        <v>0.4911513413920091</v>
+        <v>0.5317925916499152</v>
       </c>
       <c r="K42">
-        <v>0.6585527928264068</v>
+        <v>0.6824305334140393</v>
       </c>
       <c r="L42">
-        <v>0.7810867428988646</v>
+        <v>0.7962258881732145</v>
       </c>
       <c r="M42">
-        <v>0.9127801766638376</v>
+        <v>0.9121010554794574</v>
       </c>
       <c r="N42">
         <v>0.0104596308281984</v>
       </c>
       <c r="O42">
-        <v>0.2488433575677462</v>
+        <v>0.2672394800616876</v>
       </c>
       <c r="P42">
-        <v>0.1218990967173492</v>
+        <v>0.1349195858118658</v>
       </c>
       <c r="Q42">
-        <v>0.0830359109936203</v>
+        <v>0.087519277373881</v>
       </c>
       <c r="R42">
-        <v>0.5051835093330092</v>
+        <v>0.5241116011679576</v>
       </c>
       <c r="S42">
-        <v>0.2488433575677462</v>
+        <v>0.2672394800616876</v>
       </c>
       <c r="T42">
-        <v>0.4281502647287516</v>
+        <v>0.4533504536994604</v>
       </c>
       <c r="U42">
-        <v>0.4900876544129403</v>
+        <v>0.5094749439233214</v>
       </c>
       <c r="V42">
-        <v>0.5027789368999617</v>
-      </c>
-      <c r="W42">
-        <v>0.3240346908569336</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>2.730717857334589E-06</v>
+        <v>0.5209789951845107</v>
+      </c>
+      <c r="W42" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -3664,70 +3736,70 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>0.0601349388460052</v>
+        <v>0.0204883469880964</v>
       </c>
       <c r="E43">
-        <v>0.7520025968551636</v>
+        <v>0.2168751095628103</v>
       </c>
       <c r="F43">
-        <v>0.3035256986816723</v>
+        <v>0.1890298434059479</v>
       </c>
       <c r="G43">
-        <v>0.1722175158745001</v>
+        <v>0.1438266202097803</v>
       </c>
       <c r="H43">
-        <v>0.9791564345359802</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0.7520025968551636</v>
+        <v>0.2043821178799912</v>
       </c>
       <c r="J43">
-        <v>0.9105770587921144</v>
+        <v>0.4911513413920091</v>
       </c>
       <c r="K43">
-        <v>0.947196364402771</v>
+        <v>0.6585527928264068</v>
       </c>
       <c r="L43">
-        <v>0.9697564244270324</v>
+        <v>0.7810867428988646</v>
       </c>
       <c r="M43">
-        <v>0.9889651536941528</v>
+        <v>0.9127801766638376</v>
       </c>
       <c r="N43">
-        <v>0.0310200173407793</v>
+        <v>0.0104596308281984</v>
       </c>
       <c r="O43">
-        <v>0.7520025968551636</v>
+        <v>0.2488433575677462</v>
       </c>
       <c r="P43">
-        <v>0.1821154206991195</v>
+        <v>0.1218990967173492</v>
       </c>
       <c r="Q43">
-        <v>0.09471963346004481</v>
+        <v>0.0830359109936203</v>
       </c>
       <c r="R43">
-        <v>0.8629212379455566</v>
+        <v>0.5051835093330092</v>
       </c>
       <c r="S43">
-        <v>0.7520025968551636</v>
+        <v>0.2488433575677462</v>
       </c>
       <c r="T43">
-        <v>0.8516348004341125</v>
+        <v>0.4281502647287516</v>
       </c>
       <c r="U43">
-        <v>0.861214280128479</v>
+        <v>0.4900876544129403</v>
       </c>
       <c r="V43">
-        <v>0.8622215986251831</v>
+        <v>0.5027789368999617</v>
       </c>
       <c r="W43">
-        <v>287.4131686687469</v>
+        <v>0.3240346908569336</v>
       </c>
       <c r="X43">
-        <v>68995974</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>0.08795261479601289</v>
+        <v>2.730717857334589E-06</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -3741,70 +3813,70 @@
         <v>36</v>
       </c>
       <c r="D44">
-        <v>0.106661212593295</v>
+        <v>0.5621766214664012</v>
       </c>
       <c r="E44">
-        <v>0.7956273555755615</v>
+        <v>0.7810972332954407</v>
       </c>
       <c r="F44">
-        <v>0.3174452260136603</v>
+        <v>0.3169020497136645</v>
       </c>
       <c r="G44">
-        <v>0.1774974036807856</v>
+        <v>0.1775961705475799</v>
       </c>
       <c r="H44">
-        <v>0.9913090467453004</v>
+        <v>0.8852525949478149</v>
       </c>
       <c r="I44">
-        <v>0.7956273555755615</v>
+        <v>0.7810972332954407</v>
       </c>
       <c r="J44">
-        <v>0.9523357152938844</v>
+        <v>0.9507061243057252</v>
       </c>
       <c r="K44">
-        <v>0.9762357473373412</v>
+        <v>0.9767789244651794</v>
       </c>
       <c r="L44">
-        <v>0.991173267364502</v>
+        <v>0.9929386377334596</v>
       </c>
       <c r="M44">
-        <v>0.9997283816337584</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0.0563628226518631</v>
+        <v>0.4118650555610657</v>
       </c>
       <c r="O44">
-        <v>0.7956273555755615</v>
+        <v>0.7810972332954407</v>
       </c>
       <c r="P44">
-        <v>0.1904671341180801</v>
+        <v>0.1901412308216095</v>
       </c>
       <c r="Q44">
-        <v>0.09762357175350179</v>
+        <v>0.09767789393663399</v>
       </c>
       <c r="R44">
-        <v>0.8970789313316345</v>
+        <v>0.8901392817497253</v>
       </c>
       <c r="S44">
-        <v>0.7956273555755615</v>
+        <v>0.7810972332954407</v>
       </c>
       <c r="T44">
-        <v>0.8914504051208496</v>
+        <v>0.8845361471176147</v>
       </c>
       <c r="U44">
-        <v>0.8970314264297485</v>
+        <v>0.8901392817497253</v>
       </c>
       <c r="V44">
-        <v>0.8970789313316345</v>
+        <v>0.8901392817497253</v>
       </c>
       <c r="W44">
-        <v>2426.383432865143</v>
+        <v>137.3853771686554</v>
       </c>
       <c r="X44">
-        <v>4392628</v>
+        <v>1489024</v>
       </c>
       <c r="Y44">
-        <v>2.656418360351311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -3818,70 +3890,70 @@
         <v>37</v>
       </c>
       <c r="D45">
-        <v>0.1428374941503298</v>
+        <v>0.106661212593295</v>
       </c>
       <c r="E45">
-        <v>0.7505431771278381</v>
+        <v>0.7956273555755615</v>
       </c>
       <c r="F45">
-        <v>0.3127828993731075</v>
+        <v>0.3174452260136603</v>
       </c>
       <c r="G45">
-        <v>0.1766085624694824</v>
+        <v>0.1774974036807856</v>
       </c>
       <c r="H45">
-        <v>0.9869636297225952</v>
+        <v>0.9913090467453004</v>
       </c>
       <c r="I45">
-        <v>0.7505431771278381</v>
+        <v>0.7956273555755615</v>
       </c>
       <c r="J45">
-        <v>0.9383487105369568</v>
+        <v>0.9523357152938844</v>
       </c>
       <c r="K45">
-        <v>0.9713470935821532</v>
+        <v>0.9762357473373412</v>
       </c>
       <c r="L45">
-        <v>0.9885931611061096</v>
+        <v>0.991173267364502</v>
       </c>
       <c r="M45">
         <v>0.9997283816337584</v>
       </c>
       <c r="N45">
-        <v>0.076989896595478</v>
+        <v>0.0563628226518631</v>
       </c>
       <c r="O45">
-        <v>0.7505431771278381</v>
+        <v>0.7956273555755615</v>
       </c>
       <c r="P45">
-        <v>0.1876697391271591</v>
+        <v>0.1904671341180801</v>
       </c>
       <c r="Q45">
-        <v>0.0971347093582153</v>
+        <v>0.09762357175350179</v>
       </c>
       <c r="R45">
-        <v>0.8733927011489868</v>
+        <v>0.8970789313316345</v>
       </c>
       <c r="S45">
-        <v>0.7505431771278381</v>
+        <v>0.7956273555755615</v>
       </c>
       <c r="T45">
-        <v>0.8666979074478149</v>
+        <v>0.8914504051208496</v>
       </c>
       <c r="U45">
-        <v>0.8733450770378113</v>
+        <v>0.8970314264297485</v>
       </c>
       <c r="V45">
-        <v>0.8733927011489868</v>
+        <v>0.8970789313316345</v>
       </c>
       <c r="W45">
-        <v>119.6646575927734</v>
+        <v>2426.383432865143</v>
       </c>
       <c r="X45">
-        <v>41392</v>
+        <v>4392628</v>
       </c>
       <c r="Y45">
-        <v>0.3677774802085063</v>
+        <v>2.656418360351311</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -3895,64 +3967,70 @@
         <v>38</v>
       </c>
       <c r="D46">
-        <v>0.0542891510039922</v>
+        <v>0.1428374941503298</v>
       </c>
       <c r="E46">
-        <v>0.3542839266561132</v>
+        <v>0.7505431771278381</v>
       </c>
       <c r="F46">
-        <v>0.266623072236222</v>
+        <v>0.3127828993731075</v>
       </c>
       <c r="G46">
-        <v>0.1865739531743197</v>
+        <v>0.1766085624694824</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.9869636297225952</v>
       </c>
       <c r="I46">
-        <v>0.3343529915839531</v>
+        <v>0.7505431771278381</v>
       </c>
       <c r="J46">
-        <v>0.678899302540704</v>
+        <v>0.9383487105369568</v>
       </c>
       <c r="K46">
-        <v>0.8395558449813008</v>
+        <v>0.9713470935821532</v>
       </c>
       <c r="L46">
-        <v>0.929251579072816</v>
+        <v>0.9885931611061096</v>
       </c>
       <c r="M46">
-        <v>0.9997616493862472</v>
+        <v>0.9997283816337584</v>
       </c>
       <c r="N46">
-        <v>0.0282722710964514</v>
+        <v>0.076989896595478</v>
       </c>
       <c r="O46">
-        <v>0.4007865570253843</v>
+        <v>0.7505431771278381</v>
       </c>
       <c r="P46">
-        <v>0.1722917411512442</v>
+        <v>0.1876697391271591</v>
       </c>
       <c r="Q46">
-        <v>0.1075080443332231</v>
+        <v>0.0971347093582153</v>
       </c>
       <c r="R46">
-        <v>0.6374529640958072</v>
+        <v>0.8733927011489868</v>
       </c>
       <c r="S46">
-        <v>0.4007865570253843</v>
+        <v>0.7505431771278381</v>
       </c>
       <c r="T46">
-        <v>0.5977890993255521</v>
+        <v>0.8666979074478149</v>
       </c>
       <c r="U46">
-        <v>0.6374068882441927</v>
+        <v>0.8733450770378113</v>
       </c>
       <c r="V46">
-        <v>0.6374529640958072</v>
+        <v>0.8733927011489868</v>
       </c>
       <c r="W46">
-        <v>40.166</v>
+        <v>119.6646575927734</v>
+      </c>
+      <c r="X46">
+        <v>41392</v>
+      </c>
+      <c r="Y46">
+        <v>0.3677774802085063</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -3969,61 +4047,61 @@
         <v>0.0542891510039922</v>
       </c>
       <c r="E47">
-        <v>0.3754649384699459</v>
+        <v>0.3542839266561132</v>
       </c>
       <c r="F47">
-        <v>0.2784511053638597</v>
+        <v>0.266623072236222</v>
       </c>
       <c r="G47">
-        <v>0.188502576155907</v>
+        <v>0.1865739531743197</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0.3541629069694852</v>
+        <v>0.3343529915839531</v>
       </c>
       <c r="J47">
-        <v>0.7075745838795531</v>
+        <v>0.678899302540704</v>
       </c>
       <c r="K47">
-        <v>0.8472114396944569</v>
+        <v>0.8395558449813008</v>
       </c>
       <c r="L47">
-        <v>0.9320415581320122</v>
+        <v>0.929251579072816</v>
       </c>
       <c r="M47">
-        <v>0.9983315457037304</v>
+        <v>0.9997616493862472</v>
       </c>
       <c r="N47">
         <v>0.0282722710964514</v>
       </c>
       <c r="O47">
-        <v>0.4252770825884877</v>
+        <v>0.4007865570253843</v>
       </c>
       <c r="P47">
-        <v>0.1800858062209629</v>
+        <v>0.1722917411512442</v>
       </c>
       <c r="Q47">
-        <v>0.1086521272792368</v>
+        <v>0.1075080443332231</v>
       </c>
       <c r="R47">
-        <v>0.6548904595720243</v>
+        <v>0.6374529640958072</v>
       </c>
       <c r="S47">
-        <v>0.4252770825884877</v>
+        <v>0.4007865570253843</v>
       </c>
       <c r="T47">
-        <v>0.6168846272809396</v>
+        <v>0.5977890993255521</v>
       </c>
       <c r="U47">
-        <v>0.6545870130229678</v>
+        <v>0.6374068882441927</v>
       </c>
       <c r="V47">
-        <v>0.6548904595720243</v>
-      </c>
-      <c r="W47">
-        <v>2.481</v>
+        <v>0.6374529640958072</v>
+      </c>
+      <c r="W47" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4040,67 +4118,61 @@
         <v>0.0542891510039922</v>
       </c>
       <c r="E48">
-        <v>0.371407019270804</v>
+        <v>0.3754649384699459</v>
       </c>
       <c r="F48">
-        <v>0.2683160580729331</v>
+        <v>0.2784511053638597</v>
       </c>
       <c r="G48">
-        <v>0.1869107751254242</v>
+        <v>0.188502576155907</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0.3508259983769456</v>
+        <v>0.3541629069694852</v>
       </c>
       <c r="J48">
-        <v>0.6846547604860082</v>
+        <v>0.7075745838795531</v>
       </c>
       <c r="K48">
-        <v>0.8415243656752417</v>
+        <v>0.8472114396944569</v>
       </c>
       <c r="L48">
-        <v>0.9303279874695676</v>
+        <v>0.9320415581320122</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0.9983315457037304</v>
       </c>
       <c r="N48">
         <v>0.0282722710964514</v>
       </c>
       <c r="O48">
-        <v>0.4197354308187344</v>
+        <v>0.4252770825884877</v>
       </c>
       <c r="P48">
-        <v>0.1731498033607545</v>
+        <v>0.1800858062209629</v>
       </c>
       <c r="Q48">
-        <v>0.1076689309975062</v>
+        <v>0.1086521272792368</v>
       </c>
       <c r="R48">
-        <v>0.6446996556991778</v>
+        <v>0.6548904595720243</v>
       </c>
       <c r="S48">
-        <v>0.4197354308187344</v>
+        <v>0.4252770825884877</v>
       </c>
       <c r="T48">
-        <v>0.6051443788294556</v>
+        <v>0.6168846272809396</v>
       </c>
       <c r="U48">
-        <v>0.6446996556991778</v>
+        <v>0.6545870130229678</v>
       </c>
       <c r="V48">
-        <v>0.6446996556991778</v>
-      </c>
-      <c r="W48">
-        <v>0.3036065101623535</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>3.52587920076751E-06</v>
+        <v>0.6548904595720243</v>
+      </c>
+      <c r="W48" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4114,70 +4186,70 @@
         <v>41</v>
       </c>
       <c r="D49">
-        <v>0.1508385780198352</v>
+        <v>0.0542891510039922</v>
       </c>
       <c r="E49">
-        <v>0.8009234070777893</v>
+        <v>0.371407019270804</v>
       </c>
       <c r="F49">
-        <v>0.3174904982248942</v>
+        <v>0.2683160580729331</v>
       </c>
       <c r="G49">
-        <v>0.1773739545798498</v>
+        <v>0.1869107751254242</v>
       </c>
       <c r="H49">
-        <v>0.9807170033454896</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0.8009234070777893</v>
+        <v>0.3508259983769456</v>
       </c>
       <c r="J49">
-        <v>0.9524714946746826</v>
+        <v>0.6846547604860082</v>
       </c>
       <c r="K49">
-        <v>0.9755567908287048</v>
+        <v>0.8415243656752417</v>
       </c>
       <c r="L49">
-        <v>0.990222692489624</v>
+        <v>0.9303279874695676</v>
       </c>
       <c r="M49">
-        <v>0.9998642206192015</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>0.0817023813724517</v>
+        <v>0.0282722710964514</v>
       </c>
       <c r="O49">
-        <v>0.8009234070777893</v>
+        <v>0.4197354308187344</v>
       </c>
       <c r="P49">
-        <v>0.1904942989349365</v>
+        <v>0.1731498033607545</v>
       </c>
       <c r="Q49">
-        <v>0.0975556746125221</v>
+        <v>0.1076689309975062</v>
       </c>
       <c r="R49">
-        <v>0.899058997631073</v>
+        <v>0.6446996556991778</v>
       </c>
       <c r="S49">
-        <v>0.8009234070777893</v>
+        <v>0.4197354308187344</v>
       </c>
       <c r="T49">
-        <v>0.8933619260787964</v>
+        <v>0.6051443788294556</v>
       </c>
       <c r="U49">
-        <v>0.8990352749824524</v>
+        <v>0.6446996556991778</v>
       </c>
       <c r="V49">
-        <v>0.899058997631073</v>
+        <v>0.6446996556991778</v>
       </c>
       <c r="W49">
-        <v>62.45525884628296</v>
+        <v>0.3036065101623535</v>
       </c>
       <c r="X49">
-        <v>68953908</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>0.0048550558962064</v>
+        <v>3.52587920076751E-06</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4191,70 +4263,70 @@
         <v>36</v>
       </c>
       <c r="D50">
-        <v>0.0752429458232675</v>
+        <v>0.5414136910433104</v>
       </c>
       <c r="E50">
-        <v>0.7661224007606506</v>
+        <v>0.7634771466255188</v>
       </c>
       <c r="F50">
-        <v>0.3168840689791573</v>
+        <v>0.3166104116373592</v>
       </c>
       <c r="G50">
-        <v>0.1771247111076165</v>
+        <v>0.1771744671931936</v>
       </c>
       <c r="H50">
-        <v>0.9940709471702576</v>
+        <v>0.8866186141967773</v>
       </c>
       <c r="I50">
-        <v>0.7661224007606506</v>
+        <v>0.7634771466255188</v>
       </c>
       <c r="J50">
-        <v>0.9506521821022034</v>
+        <v>0.949831247329712</v>
       </c>
       <c r="K50">
-        <v>0.9741858839988708</v>
+        <v>0.9744595289230348</v>
       </c>
       <c r="L50">
-        <v>0.9882331490516664</v>
+        <v>0.9899662733078004</v>
       </c>
       <c r="M50">
-        <v>0.9979020357131958</v>
+        <v>0.999361515045166</v>
       </c>
       <c r="N50">
-        <v>0.0391012951731681</v>
+        <v>0.389688491821289</v>
       </c>
       <c r="O50">
-        <v>0.7661224007606506</v>
+        <v>0.7634771466255188</v>
       </c>
       <c r="P50">
-        <v>0.1901304423809051</v>
+        <v>0.1899662464857101</v>
       </c>
       <c r="Q50">
-        <v>0.0974185913801193</v>
+        <v>0.0974459573626518</v>
       </c>
       <c r="R50">
-        <v>0.8845440745353699</v>
+        <v>0.8827409744262695</v>
       </c>
       <c r="S50">
-        <v>0.7660312056541443</v>
+        <v>0.7634771466255188</v>
       </c>
       <c r="T50">
-        <v>0.8786603808403015</v>
+        <v>0.8767202496528625</v>
       </c>
       <c r="U50">
-        <v>0.884260356426239</v>
+        <v>0.8826321959495544</v>
       </c>
       <c r="V50">
-        <v>0.8845440745353699</v>
+        <v>0.8827409744262695</v>
       </c>
       <c r="W50">
-        <v>3480.940505504608</v>
+        <v>1585.040477991104</v>
       </c>
       <c r="X50">
-        <v>4395595</v>
+        <v>1782400</v>
       </c>
       <c r="Y50">
-        <v>3.786625440024471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -4268,70 +4340,70 @@
         <v>37</v>
       </c>
       <c r="D51">
-        <v>0.0897170442854765</v>
+        <v>0.0752429458232675</v>
       </c>
       <c r="E51">
-        <v>0.7169570326805115</v>
+        <v>0.7661224007606506</v>
       </c>
       <c r="F51">
-        <v>0.3091003017293082</v>
+        <v>0.3168840689791573</v>
       </c>
       <c r="G51">
-        <v>0.175134539604187</v>
+        <v>0.1771247111076165</v>
       </c>
       <c r="H51">
-        <v>0.990148663520813</v>
+        <v>0.9940709471702576</v>
       </c>
       <c r="I51">
-        <v>0.7169570326805115</v>
+        <v>0.7661224007606506</v>
       </c>
       <c r="J51">
-        <v>0.9273009300231934</v>
+        <v>0.9506521821022034</v>
       </c>
       <c r="K51">
-        <v>0.9632399678230286</v>
+        <v>0.9741858839988708</v>
       </c>
       <c r="L51">
-        <v>0.9842196702957152</v>
+        <v>0.9882331490516664</v>
       </c>
       <c r="M51">
-        <v>0.9969898462295532</v>
+        <v>0.9979020357131958</v>
       </c>
       <c r="N51">
-        <v>0.046987272799015</v>
+        <v>0.0391012951731681</v>
       </c>
       <c r="O51">
-        <v>0.7169570326805115</v>
+        <v>0.7661224007606506</v>
       </c>
       <c r="P51">
-        <v>0.1854601800441742</v>
+        <v>0.1901304423809051</v>
       </c>
       <c r="Q51">
-        <v>0.0963239967823028</v>
+        <v>0.0974185913801193</v>
       </c>
       <c r="R51">
-        <v>0.855545699596405</v>
+        <v>0.8845440745353699</v>
       </c>
       <c r="S51">
-        <v>0.7170482277870178</v>
+        <v>0.7660312056541443</v>
       </c>
       <c r="T51">
-        <v>0.847109854221344</v>
+        <v>0.8786603808403015</v>
       </c>
       <c r="U51">
-        <v>0.8550369739532471</v>
+        <v>0.884260356426239</v>
       </c>
       <c r="V51">
-        <v>0.855545699596405</v>
+        <v>0.8845440745353699</v>
       </c>
       <c r="W51">
-        <v>74.51171398162842</v>
+        <v>3480.940505504608</v>
       </c>
       <c r="X51">
-        <v>70500</v>
+        <v>4395595</v>
       </c>
       <c r="Y51">
-        <v>0.0929873547113985</v>
+        <v>3.786625440024471</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -4345,64 +4417,70 @@
         <v>38</v>
       </c>
       <c r="D52">
-        <v>0.0402745519548709</v>
+        <v>0.0897170442854765</v>
       </c>
       <c r="E52">
-        <v>0.2192102850011087</v>
+        <v>0.7169570326805115</v>
       </c>
       <c r="F52">
-        <v>0.2181107123814016</v>
+        <v>0.3091003017293082</v>
       </c>
       <c r="G52">
-        <v>0.1692071540688781</v>
+        <v>0.175134539604187</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0.990148663520813</v>
       </c>
       <c r="I52">
-        <v>0.2027270174924622</v>
+        <v>0.7169570326805115</v>
       </c>
       <c r="J52">
-        <v>0.5356805642020971</v>
+        <v>0.9273009300231934</v>
       </c>
       <c r="K52">
-        <v>0.7260670340938221</v>
+        <v>0.9632399678230286</v>
       </c>
       <c r="L52">
-        <v>0.8884361152817958</v>
+        <v>0.9842196702957152</v>
       </c>
       <c r="M52">
-        <v>0.9503060875721734</v>
+        <v>0.9969898462295532</v>
       </c>
       <c r="N52">
-        <v>0.0207707645161675</v>
+        <v>0.046987272799015</v>
       </c>
       <c r="O52">
-        <v>0.2609587285311459</v>
+        <v>0.7169570326805115</v>
       </c>
       <c r="P52">
-        <v>0.143706741861073</v>
+        <v>0.1854601800441742</v>
       </c>
       <c r="Q52">
-        <v>0.09873109459114079</v>
+        <v>0.0963239967823028</v>
       </c>
       <c r="R52">
-        <v>0.531720433279101</v>
+        <v>0.855545699596405</v>
       </c>
       <c r="S52">
-        <v>0.2609587285311459</v>
+        <v>0.7170482277870178</v>
       </c>
       <c r="T52">
-        <v>0.4639011187425697</v>
+        <v>0.847109854221344</v>
       </c>
       <c r="U52">
-        <v>0.5225347008565261</v>
+        <v>0.8550369739532471</v>
       </c>
       <c r="V52">
-        <v>0.531720433279101</v>
+        <v>0.855545699596405</v>
       </c>
       <c r="W52">
-        <v>52.8296</v>
+        <v>74.51171398162842</v>
+      </c>
+      <c r="X52">
+        <v>70500</v>
+      </c>
+      <c r="Y52">
+        <v>0.0929873547113985</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -4419,61 +4497,61 @@
         <v>0.0402745519548709</v>
       </c>
       <c r="E53">
-        <v>0.2461954292254229</v>
+        <v>0.2192102850011087</v>
       </c>
       <c r="F53">
-        <v>0.2305257056025964</v>
+        <v>0.2181107123814016</v>
       </c>
       <c r="G53">
-        <v>0.174594191861824</v>
+        <v>0.1692071540688781</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0.2265798757339386</v>
+        <v>0.2027270174924622</v>
       </c>
       <c r="J53">
-        <v>0.5609170725455013</v>
+        <v>0.5356805642020971</v>
       </c>
       <c r="K53">
-        <v>0.7425934742007539</v>
+        <v>0.7260670340938221</v>
       </c>
       <c r="L53">
-        <v>0.8960577873805255</v>
+        <v>0.8884361152817958</v>
       </c>
       <c r="M53">
-        <v>0.9810839101085194</v>
+        <v>0.9503060875721734</v>
       </c>
       <c r="N53">
         <v>0.0207707645161675</v>
       </c>
       <c r="O53">
-        <v>0.2959497564726993</v>
+        <v>0.2609587285311459</v>
       </c>
       <c r="P53">
-        <v>0.1526018969495133</v>
+        <v>0.143706741861073</v>
       </c>
       <c r="Q53">
-        <v>0.1021532940271833</v>
+        <v>0.09873109459114079</v>
       </c>
       <c r="R53">
-        <v>0.556397594705997</v>
+        <v>0.531720433279101</v>
       </c>
       <c r="S53">
-        <v>0.2959497564726993</v>
+        <v>0.2609587285311459</v>
       </c>
       <c r="T53">
-        <v>0.4915565742845703</v>
+        <v>0.4639011187425697</v>
       </c>
       <c r="U53">
-        <v>0.5530096150645034</v>
+        <v>0.5225347008565261</v>
       </c>
       <c r="V53">
-        <v>0.556397594705997</v>
-      </c>
-      <c r="W53">
-        <v>3.4475</v>
+        <v>0.531720433279101</v>
+      </c>
+      <c r="W53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -4490,67 +4568,61 @@
         <v>0.0402745519548709</v>
       </c>
       <c r="E54">
-        <v>0.232074202677895</v>
+        <v>0.2461954292254229</v>
       </c>
       <c r="F54">
-        <v>0.2241280885794998</v>
+        <v>0.2305257056025964</v>
       </c>
       <c r="G54">
-        <v>0.1709363612271234</v>
+        <v>0.174594191861824</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0.214340340083739</v>
+        <v>0.2265798757339386</v>
       </c>
       <c r="J54">
-        <v>0.5475412287447665</v>
+        <v>0.5609170725455013</v>
       </c>
       <c r="K54">
-        <v>0.7315381587138829</v>
+        <v>0.7425934742007539</v>
       </c>
       <c r="L54">
-        <v>0.8971385542168675</v>
+        <v>0.8960577873805255</v>
       </c>
       <c r="M54">
-        <v>0.9864936951453228</v>
+        <v>0.9810839101085194</v>
       </c>
       <c r="N54">
         <v>0.0207707645161675</v>
       </c>
       <c r="O54">
-        <v>0.2771084337349397</v>
+        <v>0.2959497564726993</v>
       </c>
       <c r="P54">
-        <v>0.1480645988208275</v>
+        <v>0.1526018969495133</v>
       </c>
       <c r="Q54">
-        <v>0.0998333760574316</v>
+        <v>0.1021532940271833</v>
       </c>
       <c r="R54">
-        <v>0.5433286600471819</v>
+        <v>0.556397594705997</v>
       </c>
       <c r="S54">
-        <v>0.2771084337349397</v>
+        <v>0.2959497564726993</v>
       </c>
       <c r="T54">
-        <v>0.4749401630470052</v>
+        <v>0.4915565742845703</v>
       </c>
       <c r="U54">
-        <v>0.5408218541378493</v>
+        <v>0.5530096150645034</v>
       </c>
       <c r="V54">
-        <v>0.5433286600471819</v>
-      </c>
-      <c r="W54">
-        <v>0.3132350444793701</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>2.695517704921945E-06</v>
+        <v>0.556397594705997</v>
+      </c>
+      <c r="W54" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -4564,70 +4636,70 @@
         <v>41</v>
       </c>
       <c r="D55">
-        <v>0.0987667863816413</v>
+        <v>0.0402745519548709</v>
       </c>
       <c r="E55">
-        <v>0.7733284831047058</v>
+        <v>0.232074202677895</v>
       </c>
       <c r="F55">
-        <v>0.3163975750406582</v>
+        <v>0.2241280885794998</v>
       </c>
       <c r="G55">
-        <v>0.1766437558103198</v>
+        <v>0.1709363612271234</v>
       </c>
       <c r="H55">
-        <v>0.984766960144043</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0.7733284831047058</v>
+        <v>0.214340340083739</v>
       </c>
       <c r="J55">
-        <v>0.949192762374878</v>
+        <v>0.5475412287447665</v>
       </c>
       <c r="K55">
-        <v>0.971540629863739</v>
+        <v>0.7315381587138829</v>
       </c>
       <c r="L55">
-        <v>0.9872297644615172</v>
+        <v>0.8971385542168675</v>
       </c>
       <c r="M55">
-        <v>0.9969898462295532</v>
+        <v>0.9864936951453228</v>
       </c>
       <c r="N55">
-        <v>0.0519905798137187</v>
+        <v>0.0207707645161675</v>
       </c>
       <c r="O55">
-        <v>0.7733284831047058</v>
+        <v>0.2771084337349397</v>
       </c>
       <c r="P55">
-        <v>0.1898385435342788</v>
+        <v>0.1480645988208275</v>
       </c>
       <c r="Q55">
-        <v>0.0971540659666061</v>
+        <v>0.0998333760574316</v>
       </c>
       <c r="R55">
-        <v>0.8861066699028015</v>
+        <v>0.5433286600471819</v>
       </c>
       <c r="S55">
-        <v>0.7733284831047058</v>
+        <v>0.2771084337349397</v>
       </c>
       <c r="T55">
-        <v>0.8795891404151917</v>
+        <v>0.4749401630470052</v>
       </c>
       <c r="U55">
-        <v>0.8856038451194763</v>
+        <v>0.5408218541378493</v>
       </c>
       <c r="V55">
-        <v>0.8861066699028015</v>
+        <v>0.5433286600471819</v>
       </c>
       <c r="W55">
-        <v>95.36306858062744</v>
+        <v>0.3132350444793701</v>
       </c>
       <c r="X55">
-        <v>68965707</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.0118122737849242</v>
+        <v>2.695517704921945E-06</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -4641,70 +4713,70 @@
         <v>36</v>
       </c>
       <c r="D56">
-        <v>0.0815225159762855</v>
+        <v>0.7002027396800831</v>
       </c>
       <c r="E56">
-        <v>0.7700996398925781</v>
+        <v>0.764950156211853</v>
       </c>
       <c r="F56">
-        <v>0.3169988865653673</v>
+        <v>0.3142857071426179</v>
       </c>
       <c r="G56">
-        <v>0.1772576294654657</v>
+        <v>0.1778012656968486</v>
       </c>
       <c r="H56">
-        <v>0.9936876893043518</v>
+        <v>0.6023255586624146</v>
       </c>
       <c r="I56">
-        <v>0.7700996398925781</v>
+        <v>0.764950156211853</v>
       </c>
       <c r="J56">
-        <v>0.9509966969490052</v>
+        <v>0.9428571462631226</v>
       </c>
       <c r="K56">
-        <v>0.974916934967041</v>
+        <v>0.9779070019721984</v>
       </c>
       <c r="L56">
-        <v>0.9883720874786376</v>
+        <v>0.9928571581840516</v>
       </c>
       <c r="M56">
-        <v>0.999501645565033</v>
+        <v>0.9991694092750548</v>
       </c>
       <c r="N56">
-        <v>0.0425048135221004</v>
+        <v>0.8360617756843567</v>
       </c>
       <c r="O56">
-        <v>0.7700996398925781</v>
+        <v>0.764950156211853</v>
       </c>
       <c r="P56">
-        <v>0.1901993304491043</v>
+        <v>0.18857142329216</v>
       </c>
       <c r="Q56">
-        <v>0.0974916964769363</v>
+        <v>0.09779069572687139</v>
       </c>
       <c r="R56">
-        <v>0.885018527507782</v>
+        <v>0.8802942633628845</v>
       </c>
       <c r="S56">
-        <v>0.7700996398925781</v>
+        <v>0.764950156211853</v>
       </c>
       <c r="T56">
-        <v>0.8792068362236023</v>
+        <v>0.8750119209289551</v>
       </c>
       <c r="U56">
-        <v>0.8849341869354248</v>
+        <v>0.8801512122154236</v>
       </c>
       <c r="V56">
-        <v>0.885018527507782</v>
+        <v>0.8802942633628845</v>
       </c>
       <c r="W56">
-        <v>2607.105662822723</v>
+        <v>127.2567572593689</v>
       </c>
       <c r="X56">
-        <v>4394047</v>
+        <v>1392256</v>
       </c>
       <c r="Y56">
-        <v>3.616083891602442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -4718,70 +4790,70 @@
         <v>37</v>
       </c>
       <c r="D57">
-        <v>0.1040340436379154</v>
+        <v>0.0815225159762855</v>
       </c>
       <c r="E57">
-        <v>0.7220930457115173</v>
+        <v>0.7700996398925781</v>
       </c>
       <c r="F57">
-        <v>0.3101328975624506</v>
+        <v>0.3169988865653673</v>
       </c>
       <c r="G57">
-        <v>0.1754454857061717</v>
+        <v>0.1772576294654657</v>
       </c>
       <c r="H57">
-        <v>0.990863800048828</v>
+        <v>0.9936876893043518</v>
       </c>
       <c r="I57">
-        <v>0.7220930457115173</v>
+        <v>0.7700996398925781</v>
       </c>
       <c r="J57">
-        <v>0.9303986430168152</v>
+        <v>0.9509966969490052</v>
       </c>
       <c r="K57">
-        <v>0.964950144290924</v>
+        <v>0.974916934967041</v>
       </c>
       <c r="L57">
-        <v>0.9863787293434144</v>
+        <v>0.9883720874786376</v>
       </c>
       <c r="M57">
-        <v>0.9983388781547546</v>
+        <v>0.999501645565033</v>
       </c>
       <c r="N57">
-        <v>0.0548990368843078</v>
+        <v>0.0425048135221004</v>
       </c>
       <c r="O57">
-        <v>0.7220930457115173</v>
+        <v>0.7700996398925781</v>
       </c>
       <c r="P57">
-        <v>0.186079740524292</v>
+        <v>0.1901993304491043</v>
       </c>
       <c r="Q57">
-        <v>0.0964950174093246</v>
+        <v>0.0974916964769363</v>
       </c>
       <c r="R57">
-        <v>0.8579225540161133</v>
+        <v>0.885018527507782</v>
       </c>
       <c r="S57">
-        <v>0.7219269275665283</v>
+        <v>0.7700996398925781</v>
       </c>
       <c r="T57">
-        <v>0.8497676253318787</v>
+        <v>0.8792068362236023</v>
       </c>
       <c r="U57">
-        <v>0.8576986789703369</v>
+        <v>0.8849341869354248</v>
       </c>
       <c r="V57">
-        <v>0.857900857925415</v>
+        <v>0.885018527507782</v>
       </c>
       <c r="W57">
-        <v>35.80299949645996</v>
+        <v>2607.105662822723</v>
       </c>
       <c r="X57">
-        <v>45927</v>
+        <v>4394047</v>
       </c>
       <c r="Y57">
-        <v>0.0321497194598829</v>
+        <v>3.616083891602442</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -4795,64 +4867,70 @@
         <v>38</v>
       </c>
       <c r="D58">
-        <v>0.0439360689500014</v>
+        <v>0.1040340436379154</v>
       </c>
       <c r="E58">
-        <v>0.1483124332285734</v>
+        <v>0.7220930457115173</v>
       </c>
       <c r="F58">
-        <v>0.188461598905952</v>
+        <v>0.3101328975624506</v>
       </c>
       <c r="G58">
-        <v>0.1591379848295982</v>
+        <v>0.1754454857061717</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0.990863800048828</v>
       </c>
       <c r="I58">
-        <v>0.1387046083953075</v>
+        <v>0.7220930457115173</v>
       </c>
       <c r="J58">
-        <v>0.4798940646468419</v>
+        <v>0.9303986430168152</v>
       </c>
       <c r="K58">
-        <v>0.716601148554971</v>
+        <v>0.964950144290924</v>
       </c>
       <c r="L58">
-        <v>0.8758419682401382</v>
+        <v>0.9863787293434144</v>
       </c>
       <c r="M58">
-        <v>0.9765846220866914</v>
+        <v>0.9983388781547546</v>
       </c>
       <c r="N58">
-        <v>0.0226310746279622</v>
+        <v>0.0548990368843078</v>
       </c>
       <c r="O58">
-        <v>0.1712045306033544</v>
+        <v>0.7220930457115173</v>
       </c>
       <c r="P58">
-        <v>0.1217599651492028</v>
+        <v>0.186079740524292</v>
       </c>
       <c r="Q58">
-        <v>0.0915704639512126</v>
+        <v>0.0964950174093246</v>
       </c>
       <c r="R58">
-        <v>0.4765033251463078</v>
+        <v>0.8579225540161133</v>
       </c>
       <c r="S58">
-        <v>0.1712045306033544</v>
+        <v>0.7219269275665283</v>
       </c>
       <c r="T58">
-        <v>0.4071620976319325</v>
+        <v>0.8497676253318787</v>
       </c>
       <c r="U58">
-        <v>0.4722983878254033</v>
+        <v>0.8576986789703369</v>
       </c>
       <c r="V58">
-        <v>0.4765033251463078</v>
+        <v>0.857900857925415</v>
       </c>
       <c r="W58">
-        <v>43.1859</v>
+        <v>35.80299949645996</v>
+      </c>
+      <c r="X58">
+        <v>45927</v>
+      </c>
+      <c r="Y58">
+        <v>0.0321497194598829</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -4869,61 +4947,61 @@
         <v>0.0439360689500014</v>
       </c>
       <c r="E59">
-        <v>0.2053878706786563</v>
+        <v>0.1483124332285734</v>
       </c>
       <c r="F59">
-        <v>0.2101211417155729</v>
+        <v>0.188461598905952</v>
       </c>
       <c r="G59">
-        <v>0.1624220016272666</v>
+        <v>0.1591379848295982</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0.1927366517651859</v>
+        <v>0.1387046083953075</v>
       </c>
       <c r="J59">
-        <v>0.5316462851749284</v>
+        <v>0.4798940646468419</v>
       </c>
       <c r="K59">
-        <v>0.7271637399605159</v>
+        <v>0.716601148554971</v>
       </c>
       <c r="L59">
-        <v>0.8791463975410826</v>
+        <v>0.8758419682401382</v>
       </c>
       <c r="M59">
-        <v>0.9830646917882816</v>
+        <v>0.9765846220866914</v>
       </c>
       <c r="N59">
         <v>0.0226310746279622</v>
       </c>
       <c r="O59">
-        <v>0.2358963188847745</v>
+        <v>0.1712045306033544</v>
       </c>
       <c r="P59">
-        <v>0.1360487911130475</v>
+        <v>0.1217599651492028</v>
       </c>
       <c r="Q59">
-        <v>0.09357438466565419</v>
+        <v>0.0915704639512126</v>
       </c>
       <c r="R59">
-        <v>0.5178639058370467</v>
+        <v>0.4765033251463078</v>
       </c>
       <c r="S59">
-        <v>0.2358963188847745</v>
+        <v>0.1712045306033544</v>
       </c>
       <c r="T59">
-        <v>0.4515171768950008</v>
+        <v>0.4071620976319325</v>
       </c>
       <c r="U59">
-        <v>0.5148717042746238</v>
+        <v>0.4722983878254033</v>
       </c>
       <c r="V59">
-        <v>0.5178639058370467</v>
-      </c>
-      <c r="W59">
-        <v>2.1179</v>
+        <v>0.4765033251463078</v>
+      </c>
+      <c r="W59" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -4940,67 +5018,61 @@
         <v>0.0439360689500014</v>
       </c>
       <c r="E60">
-        <v>0.1882093329599314</v>
+        <v>0.2053878706786563</v>
       </c>
       <c r="F60">
-        <v>0.1972157867060999</v>
+        <v>0.2101211417155729</v>
       </c>
       <c r="G60">
-        <v>0.1597448649978322</v>
+        <v>0.1624220016272666</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0.1769243136156663</v>
+        <v>0.1927366517651859</v>
       </c>
       <c r="J60">
-        <v>0.5026983435500099</v>
+        <v>0.5316462851749284</v>
       </c>
       <c r="K60">
-        <v>0.7209160088924843</v>
+        <v>0.7271637399605159</v>
       </c>
       <c r="L60">
-        <v>0.8769500713957259</v>
+        <v>0.8791463975410826</v>
       </c>
       <c r="M60">
-        <v>0.9884556741450664</v>
+        <v>0.9830646917882816</v>
       </c>
       <c r="N60">
         <v>0.0226310746279622</v>
       </c>
       <c r="O60">
-        <v>0.2149858418645175</v>
+        <v>0.2358963188847745</v>
       </c>
       <c r="P60">
-        <v>0.1272054018732289</v>
+        <v>0.1360487911130475</v>
       </c>
       <c r="Q60">
-        <v>0.09187540840775819</v>
+        <v>0.09357438466565419</v>
       </c>
       <c r="R60">
-        <v>0.5068088918768493</v>
+        <v>0.5178639058370467</v>
       </c>
       <c r="S60">
-        <v>0.2149858418645175</v>
+        <v>0.2358963188847745</v>
       </c>
       <c r="T60">
-        <v>0.4379165120935851</v>
+        <v>0.4515171768950008</v>
       </c>
       <c r="U60">
-        <v>0.5047214287510265</v>
+        <v>0.5148717042746238</v>
       </c>
       <c r="V60">
-        <v>0.5068088918768493</v>
-      </c>
-      <c r="W60">
-        <v>0.1640818119049072</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>1.366796650296794E-06</v>
+        <v>0.5178639058370467</v>
+      </c>
+      <c r="W60" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -5014,70 +5086,70 @@
         <v>41</v>
       </c>
       <c r="D61">
-        <v>0.1197743328084048</v>
+        <v>0.0439360689500014</v>
       </c>
       <c r="E61">
-        <v>0.764451801776886</v>
+        <v>0.1882093329599314</v>
       </c>
       <c r="F61">
-        <v>0.3142303468452559</v>
+        <v>0.1972157867060999</v>
       </c>
       <c r="G61">
-        <v>0.1764723653635702</v>
+        <v>0.1597448649978322</v>
       </c>
       <c r="H61">
-        <v>0.980398654937744</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0.764451801776886</v>
+        <v>0.1769243136156663</v>
       </c>
       <c r="J61">
-        <v>0.9426910281181335</v>
+        <v>0.5026983435500099</v>
       </c>
       <c r="K61">
-        <v>0.9705979824066162</v>
+        <v>0.7209160088924843</v>
       </c>
       <c r="L61">
-        <v>0.9868770837783812</v>
+        <v>0.8769500713957259</v>
       </c>
       <c r="M61">
-        <v>0.9986711144447328</v>
+        <v>0.9884556741450664</v>
       </c>
       <c r="N61">
-        <v>0.0637833401560783</v>
+        <v>0.0226310746279622</v>
       </c>
       <c r="O61">
-        <v>0.764451801776886</v>
+        <v>0.2149858418645175</v>
       </c>
       <c r="P61">
-        <v>0.1885382086038589</v>
+        <v>0.1272054018732289</v>
       </c>
       <c r="Q61">
-        <v>0.0970598012208938</v>
+        <v>0.09187540840775819</v>
       </c>
       <c r="R61">
-        <v>0.8794837594032288</v>
+        <v>0.5068088918768493</v>
       </c>
       <c r="S61">
-        <v>0.764451801776886</v>
+        <v>0.2149858418645175</v>
       </c>
       <c r="T61">
-        <v>0.8726711869239807</v>
+        <v>0.4379165120935851</v>
       </c>
       <c r="U61">
-        <v>0.8792582750320435</v>
+        <v>0.5047214287510265</v>
       </c>
       <c r="V61">
-        <v>0.8794837594032288</v>
+        <v>0.5068088918768493</v>
       </c>
       <c r="W61">
-        <v>118.9589469432831</v>
+        <v>0.1640818119049072</v>
       </c>
       <c r="X61">
-        <v>68959551</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0.0204428279676419</v>
+        <v>1.366796650296794E-06</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5091,70 +5163,70 @@
         <v>36</v>
       </c>
       <c r="D62">
-        <v>0.009655136127640801</v>
+        <v>0.0502064305588919</v>
       </c>
       <c r="E62">
-        <v>0.0794612765312194</v>
+        <v>0.2969697117805481</v>
       </c>
       <c r="F62">
-        <v>0.0631500163839922</v>
+        <v>0.2356902278131908</v>
       </c>
       <c r="G62">
-        <v>0.0547699223865162</v>
+        <v>0.1437404347845345</v>
       </c>
       <c r="H62">
-        <v>0.7797979712486267</v>
+        <v>0.9007856249809264</v>
       </c>
       <c r="I62">
-        <v>0.0794612765312194</v>
+        <v>0.2969697117805481</v>
       </c>
       <c r="J62">
-        <v>0.189450055360794</v>
+        <v>0.7070707082748413</v>
       </c>
       <c r="K62">
-        <v>0.3012345731258392</v>
+        <v>0.7905724048614502</v>
       </c>
       <c r="L62">
-        <v>0.3993265926837921</v>
+        <v>0.8505050539970398</v>
       </c>
       <c r="M62">
-        <v>0.5472502708435059</v>
+        <v>0.9090909361839294</v>
       </c>
       <c r="N62">
-        <v>0.0048576407134532</v>
+        <v>0.0258228499442338</v>
       </c>
       <c r="O62">
-        <v>0.0794612765312194</v>
+        <v>0.2969697117805481</v>
       </c>
       <c r="P62">
-        <v>0.0378900095820426</v>
+        <v>0.1414141356945037</v>
       </c>
       <c r="Q62">
-        <v>0.0301234573125839</v>
+        <v>0.0790572389960289</v>
       </c>
       <c r="R62">
-        <v>0.2956887781620025</v>
+        <v>0.5985038280487061</v>
       </c>
       <c r="S62">
-        <v>0.0794612765312194</v>
+        <v>0.297643095254898</v>
       </c>
       <c r="T62">
-        <v>0.1793625354766845</v>
+        <v>0.5582916140556335</v>
       </c>
       <c r="U62">
-        <v>0.2338243871927261</v>
+        <v>0.5854542851448059</v>
       </c>
       <c r="V62">
-        <v>0.2529866397380829</v>
+        <v>0.5912307500839233</v>
       </c>
       <c r="W62">
-        <v>992.1567485332489</v>
+        <v>4408.633643388748</v>
       </c>
       <c r="X62">
-        <v>4476994</v>
+        <v>1768576</v>
       </c>
       <c r="Y62">
-        <v>0.1973861693420552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5168,70 +5240,70 @@
         <v>37</v>
       </c>
       <c r="D63">
-        <v>0.008672440368695</v>
+        <v>0.009655136127640801</v>
       </c>
       <c r="E63">
-        <v>0.2345678955316543</v>
+        <v>0.0794612765312194</v>
       </c>
       <c r="F63">
-        <v>0.2076318723460038</v>
+        <v>0.0631500163839922</v>
       </c>
       <c r="G63">
-        <v>0.1297418637709184</v>
+        <v>0.0547699223865162</v>
       </c>
       <c r="H63">
-        <v>0.9436588287353516</v>
+        <v>0.7797979712486267</v>
       </c>
       <c r="I63">
-        <v>0.2345678955316543</v>
+        <v>0.0794612765312194</v>
       </c>
       <c r="J63">
-        <v>0.6228955984115601</v>
+        <v>0.189450055360794</v>
       </c>
       <c r="K63">
-        <v>0.7135802507400513</v>
+        <v>0.3012345731258392</v>
       </c>
       <c r="L63">
-        <v>0.7838383913040161</v>
+        <v>0.3993265926837921</v>
       </c>
       <c r="M63">
-        <v>0.854096531867981</v>
+        <v>0.5472502708435059</v>
       </c>
       <c r="N63">
-        <v>0.0043562375940382</v>
+        <v>0.0048576407134532</v>
       </c>
       <c r="O63">
-        <v>0.2345678955316543</v>
+        <v>0.0794612765312194</v>
       </c>
       <c r="P63">
-        <v>0.1245791241526603</v>
+        <v>0.0378900095820426</v>
       </c>
       <c r="Q63">
-        <v>0.0713580250740051</v>
+        <v>0.0301234573125839</v>
       </c>
       <c r="R63">
-        <v>0.5353463292121887</v>
+        <v>0.2956887781620025</v>
       </c>
       <c r="S63">
-        <v>0.2343434393405914</v>
+        <v>0.0794612765312194</v>
       </c>
       <c r="T63">
-        <v>0.4836084246635437</v>
+        <v>0.1793625354766845</v>
       </c>
       <c r="U63">
-        <v>0.5152086019515991</v>
+        <v>0.2338243871927261</v>
       </c>
       <c r="V63">
-        <v>0.5232194662094116</v>
+        <v>0.2529866397380829</v>
       </c>
       <c r="W63">
-        <v>37.14575386047363</v>
+        <v>992.1567485332489</v>
       </c>
       <c r="X63">
-        <v>523146</v>
+        <v>4476994</v>
       </c>
       <c r="Y63">
-        <v>0.0181348591888816</v>
+        <v>0.1973861693420552</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -5245,64 +5317,70 @@
         <v>38</v>
       </c>
       <c r="D64">
-        <v>0.0029410604190692</v>
+        <v>0.008672440368695</v>
       </c>
       <c r="E64">
-        <v>0.022166034555415</v>
+        <v>0.2345678955316543</v>
       </c>
       <c r="F64">
-        <v>0.032821624224911</v>
+        <v>0.2076318723460038</v>
       </c>
       <c r="G64">
-        <v>0.0540446574074901</v>
+        <v>0.1297418637709184</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0.9436588287353516</v>
       </c>
       <c r="I64">
-        <v>0.0221238938053097</v>
+        <v>0.2345678955316543</v>
       </c>
       <c r="J64">
-        <v>0.09747155499367879</v>
+        <v>0.6228955984115601</v>
       </c>
       <c r="K64">
-        <v>0.278204804045512</v>
+        <v>0.7135802507400513</v>
       </c>
       <c r="L64">
-        <v>0.5059418457648546</v>
+        <v>0.7838383913040161</v>
       </c>
       <c r="M64">
-        <v>0.5596713021491783</v>
+        <v>0.854096531867981</v>
       </c>
       <c r="N64">
-        <v>0.0014727871023864</v>
+        <v>0.0043562375940382</v>
       </c>
       <c r="O64">
-        <v>0.0222503160556257</v>
+        <v>0.2345678955316543</v>
       </c>
       <c r="P64">
-        <v>0.0197724399494312</v>
+        <v>0.1245791241526603</v>
       </c>
       <c r="Q64">
-        <v>0.0301643489254103</v>
+        <v>0.0713580250740051</v>
       </c>
       <c r="R64">
-        <v>0.2515296641963438</v>
+        <v>0.5353463292121887</v>
       </c>
       <c r="S64">
-        <v>0.0222503160556257</v>
+        <v>0.2343434393405914</v>
       </c>
       <c r="T64">
-        <v>0.1205563599001164</v>
+        <v>0.4836084246635437</v>
       </c>
       <c r="U64">
-        <v>0.1912038562216668</v>
+        <v>0.5152086019515991</v>
       </c>
       <c r="V64">
-        <v>0.2023499263117841</v>
+        <v>0.5232194662094116</v>
       </c>
       <c r="W64">
-        <v>345.8308</v>
+        <v>37.14575386047363</v>
+      </c>
+      <c r="X64">
+        <v>523146</v>
+      </c>
+      <c r="Y64">
+        <v>0.0181348591888816</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5319,61 +5397,61 @@
         <v>0.0029410604190692</v>
       </c>
       <c r="E65">
-        <v>0.6790139064475346</v>
+        <v>0.022166034555415</v>
       </c>
       <c r="F65">
-        <v>0.2438655108061017</v>
+        <v>0.032821624224911</v>
       </c>
       <c r="G65">
-        <v>0.1353870318472101</v>
+        <v>0.0540446574074901</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0.6737968815844924</v>
+        <v>0.0221238938053097</v>
       </c>
       <c r="J65">
-        <v>0.7097345132743362</v>
+        <v>0.09747155499367879</v>
       </c>
       <c r="K65">
-        <v>0.7187104930467763</v>
+        <v>0.278204804045512</v>
       </c>
       <c r="L65">
-        <v>0.729709228824273</v>
+        <v>0.5059418457648546</v>
       </c>
       <c r="M65">
-        <v>0.7396965865992414</v>
+        <v>0.5596713021491783</v>
       </c>
       <c r="N65">
         <v>0.0014727871023864</v>
       </c>
       <c r="O65">
-        <v>0.6900126422250316</v>
+        <v>0.0222503160556257</v>
       </c>
       <c r="P65">
-        <v>0.1482680151706691</v>
+        <v>0.0197724399494312</v>
       </c>
       <c r="Q65">
-        <v>0.0750442477876103</v>
+        <v>0.0301643489254103</v>
       </c>
       <c r="R65">
-        <v>0.7382857976560373</v>
+        <v>0.2515296641963438</v>
       </c>
       <c r="S65">
-        <v>0.6900126422250316</v>
+        <v>0.0222503160556257</v>
       </c>
       <c r="T65">
-        <v>0.7025763870124153</v>
+        <v>0.1205563599001164</v>
       </c>
       <c r="U65">
-        <v>0.7073564088816735</v>
+        <v>0.1912038562216668</v>
       </c>
       <c r="V65">
-        <v>0.709298940987285</v>
-      </c>
-      <c r="W65">
-        <v>5.1412</v>
+        <v>0.2023499263117841</v>
+      </c>
+      <c r="W65" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5390,67 +5468,61 @@
         <v>0.0029410604190692</v>
       </c>
       <c r="E66">
-        <v>0.1646860514117151</v>
+        <v>0.6790139064475346</v>
       </c>
       <c r="F66">
-        <v>0.06494491601950581</v>
+        <v>0.2438655108061017</v>
       </c>
       <c r="G66">
-        <v>0.0482205110523703</v>
+        <v>0.1353870318472101</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0.1644753476611883</v>
+        <v>0.6737968815844924</v>
       </c>
       <c r="J66">
-        <v>0.1939317319848293</v>
+        <v>0.7097345132743362</v>
       </c>
       <c r="K66">
-        <v>0.2638432364096081</v>
+        <v>0.7187104930467763</v>
       </c>
       <c r="L66">
-        <v>0.3638432364096081</v>
+        <v>0.729709228824273</v>
       </c>
       <c r="M66">
-        <v>0.5026548672566372</v>
+        <v>0.7396965865992414</v>
       </c>
       <c r="N66">
         <v>0.0014727871023864</v>
       </c>
       <c r="O66">
-        <v>0.1651074589127686</v>
+        <v>0.6900126422250316</v>
       </c>
       <c r="P66">
-        <v>0.0390391908975979</v>
+        <v>0.1482680151706691</v>
       </c>
       <c r="Q66">
-        <v>0.0265486725663712</v>
+        <v>0.0750442477876103</v>
       </c>
       <c r="R66">
-        <v>0.3228403291768725</v>
+        <v>0.7382857976560373</v>
       </c>
       <c r="S66">
-        <v>0.1651074589127686</v>
+        <v>0.6900126422250316</v>
       </c>
       <c r="T66">
-        <v>0.2015540551425598</v>
+        <v>0.7025763870124153</v>
       </c>
       <c r="U66">
-        <v>0.2532264466723797</v>
+        <v>0.7073564088816735</v>
       </c>
       <c r="V66">
-        <v>0.2793053807618704</v>
-      </c>
-      <c r="W66">
-        <v>0.3137505054473877</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>3.633534369945037E-06</v>
+        <v>0.709298940987285</v>
+      </c>
+      <c r="W66" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -5464,70 +5536,70 @@
         <v>41</v>
       </c>
       <c r="D67">
-        <v>0.0095921453387963</v>
+        <v>0.0029410604190692</v>
       </c>
       <c r="E67">
-        <v>0.0808080807328224</v>
+        <v>0.1646860514117151</v>
       </c>
       <c r="F67">
-        <v>0.06337448354396551</v>
+        <v>0.06494491601950581</v>
       </c>
       <c r="G67">
-        <v>0.0604836236346851</v>
+        <v>0.0482205110523703</v>
       </c>
       <c r="H67">
-        <v>0.798204243183136</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0.0808080807328224</v>
+        <v>0.1644753476611883</v>
       </c>
       <c r="J67">
-        <v>0.1901234537363052</v>
+        <v>0.1939317319848293</v>
       </c>
       <c r="K67">
-        <v>0.3326599299907684</v>
+        <v>0.2638432364096081</v>
       </c>
       <c r="L67">
-        <v>0.3863075077533722</v>
+        <v>0.3638432364096081</v>
       </c>
       <c r="M67">
-        <v>0.5450056195259094</v>
+        <v>0.5026548672566372</v>
       </c>
       <c r="N67">
-        <v>0.0048250644467771</v>
+        <v>0.0014727871023864</v>
       </c>
       <c r="O67">
-        <v>0.0808080807328224</v>
+        <v>0.1651074589127686</v>
       </c>
       <c r="P67">
-        <v>0.0380246900022029</v>
+        <v>0.0390391908975979</v>
       </c>
       <c r="Q67">
-        <v>0.0332659929990768</v>
+        <v>0.0265486725663712</v>
       </c>
       <c r="R67">
-        <v>0.2987389862537384</v>
+        <v>0.3228403291768725</v>
       </c>
       <c r="S67">
-        <v>0.0808080807328224</v>
+        <v>0.1651074589127686</v>
       </c>
       <c r="T67">
-        <v>0.1903207749128341</v>
+        <v>0.2015540551425598</v>
       </c>
       <c r="U67">
-        <v>0.2357388436794281</v>
+        <v>0.2532264466723797</v>
       </c>
       <c r="V67">
-        <v>0.2567194402217865</v>
+        <v>0.2793053807618704</v>
       </c>
       <c r="W67">
-        <v>3345.191141366959</v>
+        <v>0.3137505054473877</v>
       </c>
       <c r="X67">
-        <v>69289410</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>13.86698724765062</v>
+        <v>3.633534369945037E-06</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -5541,70 +5613,70 @@
         <v>36</v>
       </c>
       <c r="D68">
-        <v>0.0037058727382236</v>
+        <v>0.0208261831137279</v>
       </c>
       <c r="E68">
-        <v>0.0015391901833936</v>
+        <v>0.4065830111503601</v>
       </c>
       <c r="F68">
-        <v>0.0070250219561987</v>
+        <v>0.1878601312637329</v>
       </c>
       <c r="G68">
-        <v>0.0090413964238048</v>
+        <v>0.1132757831210932</v>
       </c>
       <c r="H68">
-        <v>0.5053279399871826</v>
+        <v>0.7903149127960205</v>
       </c>
       <c r="I68">
-        <v>0.0015391901833936</v>
+        <v>0.4065830111503601</v>
       </c>
       <c r="J68">
-        <v>0.0210750643163919</v>
+        <v>0.5635803937911987</v>
       </c>
       <c r="K68">
-        <v>0.0497276820242404</v>
+        <v>0.6230168342590332</v>
       </c>
       <c r="L68">
-        <v>0.0837082639336586</v>
+        <v>0.6796116232872009</v>
       </c>
       <c r="M68">
-        <v>0.1703765094280243</v>
+        <v>0.7603599429130554</v>
       </c>
       <c r="N68">
-        <v>0.0018597557209432</v>
+        <v>0.0105521250516176</v>
       </c>
       <c r="O68">
-        <v>0.0015391901833936</v>
+        <v>0.4065830111503601</v>
       </c>
       <c r="P68">
-        <v>0.0042150132358074</v>
+        <v>0.1127160787582397</v>
       </c>
       <c r="Q68">
-        <v>0.0049727680161595</v>
+        <v>0.062301680445671</v>
       </c>
       <c r="R68">
-        <v>0.1485231220722198</v>
+        <v>0.5725017786026001</v>
       </c>
       <c r="S68">
-        <v>0.0015391901833936</v>
+        <v>0.406701385974884</v>
       </c>
       <c r="T68">
-        <v>0.020696472376585</v>
+        <v>0.5097736716270447</v>
       </c>
       <c r="U68">
-        <v>0.046204350888729</v>
+        <v>0.5400979518890381</v>
       </c>
       <c r="V68">
-        <v>0.0624294616281986</v>
+        <v>0.5509313941001892</v>
       </c>
       <c r="W68">
-        <v>9970.989691495895</v>
+        <v>6877.387166976929</v>
       </c>
       <c r="X68">
-        <v>4518532</v>
+        <v>2784256</v>
       </c>
       <c r="Y68">
-        <v>16.00890431201247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -5618,70 +5690,70 @@
         <v>37</v>
       </c>
       <c r="D69">
-        <v>0.0045818598176291</v>
+        <v>0.0037058727382236</v>
       </c>
       <c r="E69">
-        <v>0.3419370055198669</v>
+        <v>0.0015391901833936</v>
       </c>
       <c r="F69">
-        <v>0.1687583840555614</v>
+        <v>0.0070250219561987</v>
       </c>
       <c r="G69">
-        <v>0.1027920704242611</v>
+        <v>0.0090413964238048</v>
       </c>
       <c r="H69">
-        <v>0.936656415462494</v>
+        <v>0.5053279399871826</v>
       </c>
       <c r="I69">
-        <v>0.3419370055198669</v>
+        <v>0.0015391901833936</v>
       </c>
       <c r="J69">
-        <v>0.5062751770019531</v>
+        <v>0.0210750643163919</v>
       </c>
       <c r="K69">
-        <v>0.5653563737869263</v>
+        <v>0.0497276820242404</v>
       </c>
       <c r="L69">
-        <v>0.630357563495636</v>
+        <v>0.0837082639336586</v>
       </c>
       <c r="M69">
-        <v>0.7214065790176392</v>
+        <v>0.1703765094280243</v>
       </c>
       <c r="N69">
-        <v>0.0022965469397604</v>
+        <v>0.0018597557209432</v>
       </c>
       <c r="O69">
-        <v>0.3419370055198669</v>
+        <v>0.0015391901833936</v>
       </c>
       <c r="P69">
-        <v>0.1012550294399261</v>
+        <v>0.0042150132358074</v>
       </c>
       <c r="Q69">
-        <v>0.0565356388688087</v>
+        <v>0.0049727680161595</v>
       </c>
       <c r="R69">
-        <v>0.5204825401306152</v>
+        <v>0.1485231220722198</v>
       </c>
       <c r="S69">
-        <v>0.3425289988517761</v>
+        <v>0.0015391901833936</v>
       </c>
       <c r="T69">
-        <v>0.4489425420761108</v>
+        <v>0.020696472376585</v>
       </c>
       <c r="U69">
-        <v>0.483133316040039</v>
+        <v>0.046204350888729</v>
       </c>
       <c r="V69">
-        <v>0.495350569486618</v>
+        <v>0.0624294616281986</v>
       </c>
       <c r="W69">
-        <v>179.7964928150177</v>
+        <v>9970.989691495895</v>
       </c>
       <c r="X69">
-        <v>1451536</v>
+        <v>4518532</v>
       </c>
       <c r="Y69">
-        <v>0.09117220929120359</v>
+        <v>16.00890431201247</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -5695,64 +5767,70 @@
         <v>38</v>
       </c>
       <c r="D70">
-        <v>0.0021020549716126</v>
+        <v>0.0045818598176291</v>
       </c>
       <c r="E70">
-        <v>0.0017408832691955</v>
+        <v>0.3419370055198669</v>
       </c>
       <c r="F70">
-        <v>0.0086017839591231</v>
+        <v>0.1687583840555614</v>
       </c>
       <c r="G70">
-        <v>0.0080353664568892</v>
+        <v>0.1027920704242611</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0.936656415462494</v>
       </c>
       <c r="I70">
-        <v>0.0017179769103903</v>
+        <v>0.3419370055198669</v>
       </c>
       <c r="J70">
-        <v>0.0251969946857247</v>
+        <v>0.5062751770019531</v>
       </c>
       <c r="K70">
-        <v>0.0427661718893164</v>
+        <v>0.5653563737869263</v>
       </c>
       <c r="L70">
-        <v>0.0785534307180816</v>
+        <v>0.630357563495636</v>
       </c>
       <c r="M70">
-        <v>0.1526784078117228</v>
+        <v>0.7214065790176392</v>
       </c>
       <c r="N70">
-        <v>0.0010522727196854</v>
+        <v>0.0022965469397604</v>
       </c>
       <c r="O70">
-        <v>0.0017866959868059</v>
+        <v>0.3419370055198669</v>
       </c>
       <c r="P70">
-        <v>0.0052226498075865</v>
+        <v>0.1012550294399261</v>
       </c>
       <c r="Q70">
-        <v>0.0044529961517317</v>
+        <v>0.0565356388688087</v>
       </c>
       <c r="R70">
-        <v>0.1477833713488658</v>
+        <v>0.5204825401306152</v>
       </c>
       <c r="S70">
-        <v>0.0017866959868059</v>
+        <v>0.3425289988517761</v>
       </c>
       <c r="T70">
-        <v>0.0191770842858194</v>
+        <v>0.4489425420761108</v>
       </c>
       <c r="U70">
-        <v>0.0429985665084637</v>
+        <v>0.483133316040039</v>
       </c>
       <c r="V70">
-        <v>0.0592108657355863</v>
+        <v>0.495350569486618</v>
       </c>
       <c r="W70">
-        <v>386.5587</v>
+        <v>179.7964928150177</v>
+      </c>
+      <c r="X70">
+        <v>1451536</v>
+      </c>
+      <c r="Y70">
+        <v>0.09117220929120359</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -5769,61 +5847,61 @@
         <v>0.0021020549716126</v>
       </c>
       <c r="E71">
-        <v>0.0847103327312233</v>
+        <v>0.0017408832691955</v>
       </c>
       <c r="F71">
-        <v>0.0550592291948148</v>
+        <v>0.0086017839591231</v>
       </c>
       <c r="G71">
-        <v>0.0396070852365526</v>
+        <v>0.0080353664568892</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0.08317069818581629</v>
+        <v>0.0017179769103903</v>
       </c>
       <c r="J71">
-        <v>0.1540891122804262</v>
+        <v>0.0251969946857247</v>
       </c>
       <c r="K71">
-        <v>0.1991135239142386</v>
+        <v>0.0427661718893164</v>
       </c>
       <c r="L71">
-        <v>0.2513567109086626</v>
+        <v>0.0785534307180816</v>
       </c>
       <c r="M71">
-        <v>0.3355650671483546</v>
+        <v>0.1526784078117228</v>
       </c>
       <c r="N71">
         <v>0.0010522727196854</v>
       </c>
       <c r="O71">
-        <v>0.088235294117647</v>
+        <v>0.0017866959868059</v>
       </c>
       <c r="P71">
-        <v>0.0341946124244082</v>
+        <v>0.0052226498075865</v>
       </c>
       <c r="Q71">
-        <v>0.0223062122045073</v>
+        <v>0.0044529961517317</v>
       </c>
       <c r="R71">
-        <v>0.2489498915047096</v>
+        <v>0.1477833713488658</v>
       </c>
       <c r="S71">
-        <v>0.088235294117647</v>
+        <v>0.0017866959868059</v>
       </c>
       <c r="T71">
-        <v>0.1371091224867218</v>
+        <v>0.0191770842858194</v>
       </c>
       <c r="U71">
-        <v>0.1678848405704802</v>
+        <v>0.0429985665084637</v>
       </c>
       <c r="V71">
-        <v>0.1789466618054607</v>
-      </c>
-      <c r="W71">
-        <v>4.7858</v>
+        <v>0.0592108657355863</v>
+      </c>
+      <c r="W71" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -5840,67 +5918,61 @@
         <v>0.0021020549716126</v>
       </c>
       <c r="E72">
-        <v>0.001466006963533</v>
+        <v>0.0847103327312233</v>
       </c>
       <c r="F72">
-        <v>0.0076430883880031</v>
+        <v>0.0550592291948148</v>
       </c>
       <c r="G72">
-        <v>0.0071642108578612</v>
+        <v>0.0396070852365526</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0.0014431006047278</v>
+        <v>0.08317069818581629</v>
       </c>
       <c r="J72">
-        <v>0.0216694154297232</v>
+        <v>0.1540891122804262</v>
       </c>
       <c r="K72">
-        <v>0.0369525380245556</v>
+        <v>0.1991135239142386</v>
       </c>
       <c r="L72">
-        <v>0.062451896646509</v>
+        <v>0.2513567109086626</v>
       </c>
       <c r="M72">
-        <v>0.1310220817298882</v>
+        <v>0.3355650671483546</v>
       </c>
       <c r="N72">
         <v>0.0010522727196854</v>
       </c>
       <c r="O72">
-        <v>0.0015118196811434</v>
+        <v>0.088235294117647</v>
       </c>
       <c r="P72">
-        <v>0.0047003848268279</v>
+        <v>0.0341946124244082</v>
       </c>
       <c r="Q72">
-        <v>0.0039994502473886</v>
+        <v>0.0223062122045073</v>
       </c>
       <c r="R72">
-        <v>0.1441667108886815</v>
+        <v>0.2489498915047096</v>
       </c>
       <c r="S72">
-        <v>0.0015118196811434</v>
+        <v>0.088235294117647</v>
       </c>
       <c r="T72">
-        <v>0.0170872724459561</v>
+        <v>0.1371091224867218</v>
       </c>
       <c r="U72">
-        <v>0.0372329644655999</v>
+        <v>0.1678848405704802</v>
       </c>
       <c r="V72">
-        <v>0.0532605880566492</v>
-      </c>
-      <c r="W72">
-        <v>0.3189404010772705</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>3.650700889737345E-06</v>
+        <v>0.1789466618054607</v>
+      </c>
+      <c r="W72" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -5914,70 +5986,70 @@
         <v>41</v>
       </c>
       <c r="D73">
-        <v>0.0037905339433732</v>
+        <v>0.0021020549716126</v>
       </c>
       <c r="E73">
-        <v>0.0015391901833936</v>
+        <v>0.001466006963533</v>
       </c>
       <c r="F73">
-        <v>0.0071434210985898</v>
+        <v>0.0076430883880031</v>
       </c>
       <c r="G73">
-        <v>0.0089768150990659</v>
+        <v>0.0071642108578612</v>
       </c>
       <c r="H73">
-        <v>0.4917120635509491</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0.0015391901833936</v>
+        <v>0.0014431006047278</v>
       </c>
       <c r="J73">
-        <v>0.0214302632957696</v>
+        <v>0.0216694154297232</v>
       </c>
       <c r="K73">
-        <v>0.0493724830448627</v>
+        <v>0.0369525380245556</v>
       </c>
       <c r="L73">
-        <v>0.0834714621305465</v>
+        <v>0.062451896646509</v>
       </c>
       <c r="M73">
-        <v>0.170731708407402</v>
+        <v>0.1310220817298882</v>
       </c>
       <c r="N73">
-        <v>0.0019026004010811</v>
+        <v>0.0010522727196854</v>
       </c>
       <c r="O73">
-        <v>0.0015391901833936</v>
+        <v>0.0015118196811434</v>
       </c>
       <c r="P73">
-        <v>0.0042860526591539</v>
+        <v>0.0047003848268279</v>
       </c>
       <c r="Q73">
-        <v>0.0049372483044862</v>
+        <v>0.0039994502473886</v>
       </c>
       <c r="R73">
-        <v>0.1483013033866882</v>
+        <v>0.1441667108886815</v>
       </c>
       <c r="S73">
-        <v>0.0015391901833936</v>
+        <v>0.0015118196811434</v>
       </c>
       <c r="T73">
-        <v>0.0204380638897418</v>
+        <v>0.0170872724459561</v>
       </c>
       <c r="U73">
-        <v>0.046065405011177</v>
+        <v>0.0372329644655999</v>
       </c>
       <c r="V73">
-        <v>0.0622287951409816</v>
+        <v>0.0532605880566492</v>
       </c>
       <c r="W73">
-        <v>4198.602324008942</v>
+        <v>0.3189404010772705</v>
       </c>
       <c r="X73">
-        <v>69454596</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>14.98814846419687</v>
+        <v>3.650700889737345E-06</v>
       </c>
     </row>
   </sheetData>
